--- a/eval/carla_full_nms.xlsx
+++ b/eval/carla_full_nms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\DLVR\PyTorch-YOLOv3\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E843C7-DB9A-4FB7-80A6-A29A9D8433A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268BD15-6D88-4F50-BBFC-8687BD26CEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carla_full_nms!$A$1:$T$122</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle3!$A$1:$T$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle3!$A$1:$V$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
   <si>
     <t>conf_thrs</t>
   </si>
@@ -446,6 +446,35 @@
   </si>
   <si>
     <t>C:\Users\david\Pictures\dlvr graphs\v1\precision_recall.png</t>
+  </si>
+  <si>
+    <t>m_precision</t>
+  </si>
+  <si>
+    <t>m_recall</t>
+  </si>
+  <si>
+    <t>XLToolbox.Export.Models.BatchExportSettings</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;_x000D_
+&lt;BatchExportSettings xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;_x000D_
+  &lt;Preset&gt;_x000D_
+    &lt;Name&gt;Png, 300 dpi, RGB, Transparent canvas&lt;/Name&gt;_x000D_
+    &lt;Dpi&gt;300&lt;/Dpi&gt;_x000D_
+    &lt;FileType&gt;Png&lt;/FileType&gt;_x000D_
+    &lt;ColorSpace&gt;Rgb&lt;/ColorSpace&gt;_x000D_
+    &lt;Transparency&gt;TransparentCanvas&lt;/Transparency&gt;_x000D_
+    &lt;UseColorProfile&gt;false&lt;/UseColorProfile&gt;_x000D_
+    &lt;ColorProfile&gt;Dell_XPS17_9700_FHD_SHP14D7&lt;/ColorProfile&gt;_x000D_
+  &lt;/Preset&gt;_x000D_
+  &lt;FileName&gt;{workbook}_{worksheet}_{index}&lt;/FileName&gt;_x000D_
+  &lt;Scope&gt;ActiveSheet&lt;/Scope&gt;_x000D_
+  &lt;Objects&gt;Charts&lt;/Objects&gt;_x000D_
+  &lt;Layout&gt;SingleItems&lt;/Layout&gt;_x000D_
+  &lt;Path&gt;C:\Users\david\Pictures\dlvr graphs\v1&lt;/Path&gt;_x000D_
+  &lt;Screenshot&gt;false&lt;/Screenshot&gt;_x000D_
+&lt;/BatchExportSettings&gt;</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1251,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle3!$O$7:$O$117</c:f>
+              <c:f>Tabelle3!$P$7:$P$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1331,7 +1360,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle3!$O$131:$O$132</c:f>
+              <c:f>Tabelle3!$P$131:$P$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1660,7 +1689,537 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle3!$U$7:$U$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.85249128894947879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77055476945646539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75053684354657124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73557948746264523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72422369525562558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71080889559019833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69759469182360301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68390687413936524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6460256973938866</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57968599200594773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9462998603720881E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle3!$O$7:$O$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8738115815089585E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20547044639235579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25138644945226984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28365254638047366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3137083021472204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34344911551681151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37057965578471913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40686812319854437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44361352493796141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50390121989364967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-276C-40B9-A76C-18A297F2DCD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle3!$P$131:$P$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle3!$N$131:$N$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-276C-40B9-A76C-18A297F2DCD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="988145583"/>
+        <c:axId val="988148495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="988145583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>average recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="988148495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="988148495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>average precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="988145583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2216,6 +2775,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2249,6 +3324,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>216360</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>49080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBA200D-56D6-44E5-8EFE-4483B2842346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2557,7 +3670,7 @@
   <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
@@ -10286,15 +11399,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69746CB2-655A-4D6B-B632-7A858D0A695E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N136" sqref="N136"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>carla_full_nms!A1</f>
         <v>conf_thrs</v>
@@ -10351,32 +11464,38 @@
         <f>carla_full_nms!N1</f>
         <v xml:space="preserve"> precision4</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" t="str">
         <f>carla_full_nms!O1</f>
         <v xml:space="preserve"> recall0</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <f>carla_full_nms!P1</f>
         <v xml:space="preserve"> recall1</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <f>carla_full_nms!Q1</f>
         <v xml:space="preserve"> recall2</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <f>carla_full_nms!R1</f>
         <v xml:space="preserve"> recall3</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <f>carla_full_nms!S1</f>
         <v xml:space="preserve"> recall4</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" t="str">
         <f>carla_full_nms!T1</f>
         <v xml:space="preserve"> f1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>carla_full_nms!A2</f>
         <v>1E-3</v>
@@ -10433,32 +11552,32 @@
         <f>carla_full_nms!N2</f>
         <v>1.07459546114924E-2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f>carla_full_nms!O2</f>
         <v>0.81392694063926896</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>carla_full_nms!P2</f>
         <v>0.63362831858406998</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f>carla_full_nms!Q2</f>
         <v>0.47956730769230699</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f>carla_full_nms!R2</f>
         <v>0.77169421487603296</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f>carla_full_nms!S2</f>
         <v>0.877300613496932</v>
       </c>
-      <c r="T2" t="str">
+      <c r="V2" t="str">
         <f>carla_full_nms!T2</f>
         <v xml:space="preserve"> [0.16422895 0.26160029 0.27394439 0.27620632 0.02123184]</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>carla_full_nms!A3</f>
         <v>1E-3</v>
@@ -10515,32 +11634,32 @@
         <f>carla_full_nms!N3</f>
         <v>8.77064220183486E-3</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f>carla_full_nms!O3</f>
         <v>0.88242009132420096</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f>carla_full_nms!P3</f>
         <v>0.64070796460176904</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f>carla_full_nms!Q3</f>
         <v>0.487980769230769</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f>carla_full_nms!R3</f>
         <v>0.78305785123966898</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <f>carla_full_nms!S3</f>
         <v>0.97750511247443705</v>
       </c>
-      <c r="T3" t="str">
+      <c r="V3" t="str">
         <f>carla_full_nms!T3</f>
         <v xml:space="preserve"> [0.1437872  0.24230254 0.2529595  0.23991138 0.0173853 ]</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>carla_full_nms!A4</f>
         <v>1E-3</v>
@@ -10597,32 +11716,32 @@
         <f>carla_full_nms!N4</f>
         <v>7.2066959852461303E-3</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f>carla_full_nms!O4</f>
         <v>0.90410958904109495</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f>carla_full_nms!P4</f>
         <v>0.65309734513274298</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f>carla_full_nms!Q4</f>
         <v>0.49399038461538403</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f>carla_full_nms!R4</f>
         <v>0.794421487603305</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f>carla_full_nms!S4</f>
         <v>1.0388548057259701</v>
       </c>
-      <c r="T4" t="str">
+      <c r="V4" t="str">
         <f>carla_full_nms!T4</f>
         <v xml:space="preserve"> [0.11862503 0.22302811 0.22108661 0.20162559 0.01431409]</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>carla_full_nms!A5</f>
         <v>1E-3</v>
@@ -10679,32 +11798,32 @@
         <f>carla_full_nms!N5</f>
         <v>5.7082384632652404E-3</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f>carla_full_nms!O5</f>
         <v>0.93378995433789902</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f>carla_full_nms!P5</f>
         <v>0.65132743362831802</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f>carla_full_nms!Q5</f>
         <v>0.49158653846153799</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f>carla_full_nms!R5</f>
         <v>0.80991735537190002</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f>carla_full_nms!S5</f>
         <v>1.0920245398773001</v>
       </c>
-      <c r="T5" t="str">
+      <c r="V5" t="str">
         <f>carla_full_nms!T5</f>
         <v xml:space="preserve"> [0.09790545 0.19737195 0.18646    0.16336737 0.01135711]</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>carla_full_nms!A6</f>
         <v>1E-3</v>
@@ -10761,32 +11880,32 @@
         <f>carla_full_nms!N6</f>
         <v>4.9216356801615596E-3</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f>carla_full_nms!O6</f>
         <v>0.95776255707762503</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f>carla_full_nms!P6</f>
         <v>0.66725663716814099</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f>carla_full_nms!Q6</f>
         <v>0.48557692307692302</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f>carla_full_nms!R6</f>
         <v>0.83780991735537103</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f>carla_full_nms!S6</f>
         <v>1.18609406952965</v>
       </c>
-      <c r="T6" t="str">
+      <c r="V6" t="str">
         <f>carla_full_nms!T6</f>
         <v xml:space="preserve"> [0.07562987 0.17405355 0.15083069 0.13024974 0.0098026 ]</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>carla_full_nms!A7</f>
         <v>1E-3</v>
@@ -10844,31 +11963,39 @@
         <v>4.26529884521491E-3</v>
       </c>
       <c r="O7">
+        <f>SUM(J7:N7)/5</f>
+        <v>4.8738115815089585E-2</v>
+      </c>
+      <c r="P7">
         <f>carla_full_nms!O7</f>
         <v>0.96917808219178003</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f>carla_full_nms!P7</f>
         <v>0.67433628318584005</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f>carla_full_nms!Q7</f>
         <v>0.49158653846153799</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f>carla_full_nms!R7</f>
         <v>0.85537190082644599</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f>carla_full_nms!S7</f>
         <v>1.2719836400817901</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7">
+        <f>SUM(P7:T7)/5</f>
+        <v>0.85249128894947879</v>
+      </c>
+      <c r="V7" t="str">
         <f>carla_full_nms!T7</f>
         <v xml:space="preserve"> [0.05973194 0.15215655 0.12015276 0.10232328 0.00850209]</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>carla_full_nms!A8</f>
         <v>1E-3</v>
@@ -10925,32 +12052,32 @@
         <f>carla_full_nms!N8</f>
         <v>3.7318679258547499E-3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f>carla_full_nms!O8</f>
         <v>0.98287671232876705</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f>carla_full_nms!P8</f>
         <v>0.69203539823008797</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f>carla_full_nms!Q8</f>
         <v>0.49879807692307598</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f>carla_full_nms!R8</f>
         <v>0.86466942148760295</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f>carla_full_nms!S8</f>
         <v>1.3026584867075599</v>
       </c>
-      <c r="T8" t="str">
+      <c r="V8" t="str">
         <f>carla_full_nms!T8</f>
         <v xml:space="preserve"> [0.0473363  0.1267834  0.09645555 0.08045369 0.00744241]</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>carla_full_nms!A9</f>
         <v>1E-3</v>
@@ -11007,32 +12134,32 @@
         <f>carla_full_nms!N9</f>
         <v>3.4792523603503702E-3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f>carla_full_nms!O9</f>
         <v>0.97945205479452002</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f>carla_full_nms!P9</f>
         <v>0.69734513274336196</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f>carla_full_nms!Q9</f>
         <v>0.50120192307692302</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f>carla_full_nms!R9</f>
         <v>0.86570247933884203</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f>carla_full_nms!S9</f>
         <v>1.33537832310838</v>
       </c>
-      <c r="T9" t="str">
+      <c r="V9" t="str">
         <f>carla_full_nms!T9</f>
         <v xml:space="preserve"> [0.03833609 0.10279155 0.07766086 0.06599205 0.00694042]</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>carla_full_nms!A10</f>
         <v>1E-3</v>
@@ -11089,32 +12216,32 @@
         <f>carla_full_nms!N10</f>
         <v>3.3166574957973799E-3</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f>carla_full_nms!O10</f>
         <v>0.98744292237442899</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f>carla_full_nms!P10</f>
         <v>0.70265486725663695</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f>carla_full_nms!Q10</f>
         <v>0.50480769230769196</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f>carla_full_nms!R10</f>
         <v>0.86570247933884203</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f>carla_full_nms!S10</f>
         <v>1.3435582822085801</v>
       </c>
-      <c r="T10" t="str">
+      <c r="V10" t="str">
         <f>carla_full_nms!T10</f>
         <v xml:space="preserve"> [0.03449238 0.0876283  0.06742655 0.05712533 0.00661698]</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>carla_full_nms!A11</f>
         <v>1E-3</v>
@@ -11171,32 +12298,32 @@
         <f>carla_full_nms!N11</f>
         <v>3.2268204276887699E-3</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f>carla_full_nms!O11</f>
         <v>0.98744292237442899</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f>carla_full_nms!P11</f>
         <v>0.70265486725663695</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f>carla_full_nms!Q11</f>
         <v>0.50480769230769196</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f>carla_full_nms!R11</f>
         <v>0.86570247933884203</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f>carla_full_nms!S11</f>
         <v>1.3435582822085801</v>
       </c>
-      <c r="T11" t="str">
+      <c r="V11" t="str">
         <f>carla_full_nms!T11</f>
         <v xml:space="preserve"> [0.0315976  0.07969487 0.0638007  0.05236845 0.00643818]</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>carla_full_nms!A12</f>
         <v>1E-3</v>
@@ -11253,32 +12380,32 @@
         <f>carla_full_nms!N12</f>
         <v>3.21548129441475E-3</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f>carla_full_nms!O12</f>
         <v>0.98744292237442899</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f>carla_full_nms!P12</f>
         <v>0.70265486725663695</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f>carla_full_nms!Q12</f>
         <v>0.50480769230769196</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f>carla_full_nms!R12</f>
         <v>0.86570247933884203</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f>carla_full_nms!S12</f>
         <v>1.3435582822085801</v>
       </c>
-      <c r="T12" t="str">
+      <c r="V12" t="str">
         <f>carla_full_nms!T12</f>
         <v xml:space="preserve"> [0.03078292 0.0787386  0.06348247 0.05180514 0.00641561]</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>carla_full_nms!A13</f>
         <v>0.1</v>
@@ -11335,32 +12462,32 @@
         <f>carla_full_nms!N13</f>
         <v>5.4382597568777898E-2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f>carla_full_nms!O13</f>
         <v>0.761415525114155</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f>carla_full_nms!P13</f>
         <v>0.58761061946902604</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f>carla_full_nms!Q13</f>
         <v>0.453125</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f>carla_full_nms!R13</f>
         <v>0.74070247933884203</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f>carla_full_nms!S13</f>
         <v>0.86912065439672803</v>
       </c>
-      <c r="T13" t="str">
+      <c r="V13" t="str">
         <f>carla_full_nms!T13</f>
         <v xml:space="preserve"> [0.42308912 0.55379483 0.40364026 0.55409583 0.10236031]</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>carla_full_nms!A14</f>
         <v>0.1</v>
@@ -11417,32 +12544,32 @@
         <f>carla_full_nms!N14</f>
         <v>5.1012588943623399E-2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f>carla_full_nms!O14</f>
         <v>0.80365296803652897</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f>carla_full_nms!P14</f>
         <v>0.589380530973451</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f>carla_full_nms!Q14</f>
         <v>0.45552884615384598</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f>carla_full_nms!R14</f>
         <v>0.74173553719008201</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f>carla_full_nms!S14</f>
         <v>0.95296523517382403</v>
       </c>
-      <c r="T14" t="str">
+      <c r="V14" t="str">
         <f>carla_full_nms!T14</f>
         <v xml:space="preserve"> [0.41314554 0.54905194 0.39936776 0.53185185 0.09684123]</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>carla_full_nms!A15</f>
         <v>0.1</v>
@@ -11499,32 +12626,32 @@
         <f>carla_full_nms!N15</f>
         <v>4.4759825327510903E-2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f>carla_full_nms!O15</f>
         <v>0.82762557077625498</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f>carla_full_nms!P15</f>
         <v>0.59469026548672499</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f>carla_full_nms!Q15</f>
         <v>0.45913461538461497</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f>carla_full_nms!R15</f>
         <v>0.74896694214876003</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f>carla_full_nms!S15</f>
         <v>1.00613496932515</v>
       </c>
-      <c r="T15" t="str">
+      <c r="V15" t="str">
         <f>carla_full_nms!T15</f>
         <v xml:space="preserve"> [0.39189189 0.546786   0.39361154 0.5055788  0.08570682]</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>carla_full_nms!A16</f>
         <v>0.1</v>
@@ -11581,32 +12708,32 @@
         <f>carla_full_nms!N16</f>
         <v>3.8891440820701201E-2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f>carla_full_nms!O16</f>
         <v>0.84246575342465702</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f>carla_full_nms!P16</f>
         <v>0.59292035398230003</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f>carla_full_nms!Q16</f>
         <v>0.45552884615384598</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f>carla_full_nms!R16</f>
         <v>0.75826446280991699</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f>carla_full_nms!S16</f>
         <v>1.0388548057259701</v>
       </c>
-      <c r="T16" t="str">
+      <c r="V16" t="str">
         <f>carla_full_nms!T16</f>
         <v xml:space="preserve"> [0.35729847 0.53132435 0.37084149 0.46573604 0.07497602]</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>carla_full_nms!A17</f>
         <v>0.1</v>
@@ -11663,32 +12790,32 @@
         <f>carla_full_nms!N17</f>
         <v>3.4893561617082201E-2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f>carla_full_nms!O17</f>
         <v>0.85958904109588996</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f>carla_full_nms!P17</f>
         <v>0.59292035398230003</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f>carla_full_nms!Q17</f>
         <v>0.453125</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f>carla_full_nms!R17</f>
         <v>0.77376033057851201</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f>carla_full_nms!S17</f>
         <v>1.0961145194274</v>
       </c>
-      <c r="T17" t="str">
+      <c r="V17" t="str">
         <f>carla_full_nms!T17</f>
         <v xml:space="preserve"> [0.31718618 0.50680787 0.34226055 0.41530358 0.06763407]</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>carla_full_nms!A18</f>
         <v>0.1</v>
@@ -11746,31 +12873,39 @@
         <v>2.9988713924866899E-2</v>
       </c>
       <c r="O18">
+        <f>SUM(J18:N18)/5</f>
+        <v>0.20547044639235579</v>
+      </c>
+      <c r="P18">
         <f>carla_full_nms!O18</f>
         <v>0.87442922374429199</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f>carla_full_nms!P18</f>
         <v>0.59469026548672499</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f>carla_full_nms!Q18</f>
         <v>0.45432692307692302</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f>carla_full_nms!R18</f>
         <v>0.78822314049586695</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f>carla_full_nms!S18</f>
         <v>1.1411042944785199</v>
       </c>
-      <c r="T18" t="str">
+      <c r="U18">
+        <f>SUM(P18:T18)/5</f>
+        <v>0.77055476945646539</v>
+      </c>
+      <c r="V18" t="str">
         <f>carla_full_nms!T18</f>
         <v xml:space="preserve"> [0.26811341 0.46796657 0.30508475 0.34840183 0.05844156]</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>carla_full_nms!A19</f>
         <v>0.1</v>
@@ -11827,32 +12962,32 @@
         <f>carla_full_nms!N19</f>
         <v>2.54396299690186E-2</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f>carla_full_nms!O19</f>
         <v>0.87899543378995404</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f>carla_full_nms!P19</f>
         <v>0.60707964601769904</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f>carla_full_nms!Q19</f>
         <v>0.46153846153846101</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f>carla_full_nms!R19</f>
         <v>0.794421487603305</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f>carla_full_nms!S19</f>
         <v>1.1922290388548</v>
       </c>
-      <c r="T19" t="str">
+      <c r="V19" t="str">
         <f>carla_full_nms!T19</f>
         <v xml:space="preserve"> [0.21791425 0.41727494 0.26947368 0.28060573 0.04981629]</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>carla_full_nms!A20</f>
         <v>0.1</v>
@@ -11909,32 +13044,32 @@
         <f>carla_full_nms!N20</f>
         <v>2.1681205971456698E-2</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f>carla_full_nms!O20</f>
         <v>0.88812785388127802</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f>carla_full_nms!P20</f>
         <v>0.61769911504424702</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f>carla_full_nms!Q20</f>
         <v>0.46153846153846101</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f>carla_full_nms!R20</f>
         <v>0.79958677685950397</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f>carla_full_nms!S20</f>
         <v>1.21472392638036</v>
       </c>
-      <c r="T20" t="str">
+      <c r="V20" t="str">
         <f>carla_full_nms!T20</f>
         <v xml:space="preserve"> [0.17391304 0.33949416 0.2226087  0.22092194 0.04260202]</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>carla_full_nms!A21</f>
         <v>0.1</v>
@@ -11991,32 +13126,32 @@
         <f>carla_full_nms!N21</f>
         <v>1.9163483452636899E-2</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f>carla_full_nms!O21</f>
         <v>0.88698630136986301</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f>carla_full_nms!P21</f>
         <v>0.62654867256637103</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f>carla_full_nms!Q21</f>
         <v>0.46754807692307598</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f>carla_full_nms!R21</f>
         <v>0.798553719008264</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f>carla_full_nms!S21</f>
         <v>1.22085889570552</v>
       </c>
-      <c r="T21" t="str">
+      <c r="V21" t="str">
         <f>carla_full_nms!T21</f>
         <v xml:space="preserve"> [0.14407565 0.26096572 0.18943268 0.17928795 0.03773466]</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>carla_full_nms!A22</f>
         <v>0.1</v>
@@ -12073,32 +13208,32 @@
         <f>carla_full_nms!N22</f>
         <v>1.7743038012304198E-2</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f>carla_full_nms!O22</f>
         <v>0.89155251141552505</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f>carla_full_nms!P22</f>
         <v>0.62831858407079599</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f>carla_full_nms!Q22</f>
         <v>0.46754807692307598</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f>carla_full_nms!R22</f>
         <v>0.79958677685950397</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f>carla_full_nms!S22</f>
         <v>1.22085889570552</v>
       </c>
-      <c r="T22" t="str">
+      <c r="V22" t="str">
         <f>carla_full_nms!T22</f>
         <v xml:space="preserve"> [0.12334176 0.21560887 0.17095144 0.15442937 0.03497774]</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>carla_full_nms!A23</f>
         <v>0.1</v>
@@ -12155,32 +13290,32 @@
         <f>carla_full_nms!N23</f>
         <v>1.7562439325743501E-2</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f>carla_full_nms!O23</f>
         <v>0.89155251141552505</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f>carla_full_nms!P23</f>
         <v>0.62831858407079599</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f>carla_full_nms!Q23</f>
         <v>0.46754807692307598</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f>carla_full_nms!R23</f>
         <v>0.79958677685950397</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f>carla_full_nms!S23</f>
         <v>1.22085889570552</v>
       </c>
-      <c r="T23" t="str">
+      <c r="V23" t="str">
         <f>carla_full_nms!T23</f>
         <v xml:space="preserve"> [0.11747894 0.21005917 0.16880017 0.15070093 0.03462676]</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>carla_full_nms!A24</f>
         <v>0.2</v>
@@ -12237,32 +13372,32 @@
         <f>carla_full_nms!N24</f>
         <v>7.0045931758530106E-2</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f>carla_full_nms!O24</f>
         <v>0.75799086757990797</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f>carla_full_nms!P24</f>
         <v>0.57876106194690202</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f>carla_full_nms!Q24</f>
         <v>0.4375</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f>carla_full_nms!R24</f>
         <v>0.72417355371900805</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f>carla_full_nms!S24</f>
         <v>0.87321063394682996</v>
       </c>
-      <c r="T24" t="str">
+      <c r="V24" t="str">
         <f>carla_full_nms!T24</f>
         <v xml:space="preserve"> [0.46498599 0.57318142 0.41457859 0.57506153 0.12968869]</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>carla_full_nms!A25</f>
         <v>0.2</v>
@@ -12319,32 +13454,32 @@
         <f>carla_full_nms!N25</f>
         <v>6.7397892913840296E-2</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f>carla_full_nms!O25</f>
         <v>0.80479452054794498</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f>carla_full_nms!P25</f>
         <v>0.58230088495575205</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f>carla_full_nms!Q25</f>
         <v>0.441105769230769</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f>carla_full_nms!R25</f>
         <v>0.72314049586776796</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f>carla_full_nms!S25</f>
         <v>0.955010224948875</v>
       </c>
-      <c r="T25" t="str">
+      <c r="V25" t="str">
         <f>carla_full_nms!T25</f>
         <v xml:space="preserve"> [0.46427395 0.57068517 0.41468927 0.56       0.12590995]</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>carla_full_nms!A26</f>
         <v>0.2</v>
@@ -12401,32 +13536,32 @@
         <f>carla_full_nms!N26</f>
         <v>6.11662531017369E-2</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f>carla_full_nms!O26</f>
         <v>0.81506849315068497</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f>carla_full_nms!P26</f>
         <v>0.58407079646017701</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f>carla_full_nms!Q26</f>
         <v>0.44350961538461497</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f>carla_full_nms!R26</f>
         <v>0.72933884297520601</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f>carla_full_nms!S26</f>
         <v>1.0081799591002001</v>
       </c>
-      <c r="T26" t="str">
+      <c r="V26" t="str">
         <f>carla_full_nms!T26</f>
         <v xml:space="preserve"> [0.44652908 0.56701031 0.41275168 0.54161872 0.11533513]</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>carla_full_nms!A27</f>
         <v>0.2</v>
@@ -12483,32 +13618,32 @@
         <f>carla_full_nms!N27</f>
         <v>5.3333333333333302E-2</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f>carla_full_nms!O27</f>
         <v>0.82648401826483997</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f>carla_full_nms!P27</f>
         <v>0.58230088495575205</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f>carla_full_nms!Q27</f>
         <v>0.43990384615384598</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f>carla_full_nms!R27</f>
         <v>0.73863636363636298</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f>carla_full_nms!S27</f>
         <v>1.03067484662576</v>
       </c>
-      <c r="T27" t="str">
+      <c r="V27" t="str">
         <f>carla_full_nms!T27</f>
         <v xml:space="preserve"> [0.41288851 0.55527426 0.39631835 0.51272858 0.10141865]</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>carla_full_nms!A28</f>
         <v>0.2</v>
@@ -12565,32 +13700,32 @@
         <f>carla_full_nms!N28</f>
         <v>4.7950219619326502E-2</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <f>carla_full_nms!O28</f>
         <v>0.83904109589041098</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <f>carla_full_nms!P28</f>
         <v>0.58407079646017701</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f>carla_full_nms!Q28</f>
         <v>0.43990384615384598</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f>carla_full_nms!R28</f>
         <v>0.75619834710743805</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f>carla_full_nms!S28</f>
         <v>1.07157464212678</v>
       </c>
-      <c r="T28" t="str">
+      <c r="V28" t="str">
         <f>carla_full_nms!T28</f>
         <v xml:space="preserve"> [0.37876836 0.53833605 0.37596302 0.46624204 0.09179294]</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>carla_full_nms!A29</f>
         <v>0.2</v>
@@ -12648,31 +13783,39 @@
         <v>4.1500153704272902E-2</v>
       </c>
       <c r="O29">
+        <f>SUM(J29:N29)/5</f>
+        <v>0.25138644945226984</v>
+      </c>
+      <c r="P29">
         <f>carla_full_nms!O29</f>
         <v>0.85388127853881202</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <f>carla_full_nms!P29</f>
         <v>0.58584070796460097</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f>carla_full_nms!Q29</f>
         <v>0.441105769230769</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f>carla_full_nms!R29</f>
         <v>0.76756198347107396</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f>carla_full_nms!S29</f>
         <v>1.1042944785276001</v>
       </c>
-      <c r="T29" t="str">
+      <c r="U29">
+        <f>SUM(P29:T29)/5</f>
+        <v>0.75053684354657124</v>
+      </c>
+      <c r="V29" t="str">
         <f>carla_full_nms!T29</f>
         <v xml:space="preserve"> [0.32908051 0.50727969 0.34885932 0.40578919 0.07999407]</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>carla_full_nms!A30</f>
         <v>0.2</v>
@@ -12729,32 +13872,32 @@
         <f>carla_full_nms!N30</f>
         <v>3.5723286290322502E-2</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <f>carla_full_nms!O30</f>
         <v>0.86301369863013699</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <f>carla_full_nms!P30</f>
         <v>0.59469026548672499</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f>carla_full_nms!Q30</f>
         <v>0.44711538461538403</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f>carla_full_nms!R30</f>
         <v>0.77376033057851201</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f>carla_full_nms!S30</f>
         <v>1.1595092024539799</v>
       </c>
-      <c r="T30" t="str">
+      <c r="V30" t="str">
         <f>carla_full_nms!T30</f>
         <v xml:space="preserve"> [0.27631579 0.46601942 0.31592357 0.33482342 0.06931117]</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>carla_full_nms!A31</f>
         <v>0.2</v>
@@ -12811,32 +13954,32 @@
         <f>carla_full_nms!N31</f>
         <v>3.0466701625589902E-2</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <f>carla_full_nms!O31</f>
         <v>0.87214611872146097</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f>carla_full_nms!P31</f>
         <v>0.60530973451327397</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f>carla_full_nms!Q31</f>
         <v>0.44591346153846101</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f>carla_full_nms!R31</f>
         <v>0.78202479338842901</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f>carla_full_nms!S31</f>
         <v>1.1881390593047001</v>
       </c>
-      <c r="T31" t="str">
+      <c r="V31" t="str">
         <f>carla_full_nms!T31</f>
         <v xml:space="preserve"> [0.222773   0.39310345 0.26604518 0.26824947 0.05940999]</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>carla_full_nms!A32</f>
         <v>0.2</v>
@@ -12893,32 +14036,32 @@
         <f>carla_full_nms!N32</f>
         <v>2.65925959655753E-2</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <f>carla_full_nms!O32</f>
         <v>0.87214611872146097</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f>carla_full_nms!P32</f>
         <v>0.61592920353982294</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f>carla_full_nms!Q32</f>
         <v>0.45192307692307598</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f>carla_full_nms!R32</f>
         <v>0.78099173553719003</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f>carla_full_nms!S32</f>
         <v>1.1942740286298501</v>
       </c>
-      <c r="T32" t="str">
+      <c r="V32" t="str">
         <f>carla_full_nms!T32</f>
         <v xml:space="preserve"> [0.18336733 0.30566535 0.22630153 0.21705426 0.05202673]</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>carla_full_nms!A33</f>
         <v>0.2</v>
@@ -12975,32 +14118,32 @@
         <f>carla_full_nms!N33</f>
         <v>2.44309876801002E-2</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <f>carla_full_nms!O33</f>
         <v>0.87557077625570701</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f>carla_full_nms!P33</f>
         <v>0.61769911504424702</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f>carla_full_nms!Q33</f>
         <v>0.45192307692307598</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f>carla_full_nms!R33</f>
         <v>0.78202479338842901</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f>carla_full_nms!S33</f>
         <v>1.1963190184049</v>
       </c>
-      <c r="T33" t="str">
+      <c r="V33" t="str">
         <f>carla_full_nms!T33</f>
         <v xml:space="preserve"> [0.15496515 0.25008957 0.20133869 0.18443172 0.0478841 ]</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>carla_full_nms!A34</f>
         <v>0.2</v>
@@ -13057,32 +14200,32 @@
         <f>carla_full_nms!N34</f>
         <v>2.4147610005778902E-2</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <f>carla_full_nms!O34</f>
         <v>0.87557077625570701</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f>carla_full_nms!P34</f>
         <v>0.61769911504424702</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f>carla_full_nms!Q34</f>
         <v>0.45192307692307598</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f>carla_full_nms!R34</f>
         <v>0.78202479338842901</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f>carla_full_nms!S34</f>
         <v>1.1963190184049</v>
       </c>
-      <c r="T34" t="str">
+      <c r="V34" t="str">
         <f>carla_full_nms!T34</f>
         <v xml:space="preserve"> [0.14727343 0.24320557 0.19841689 0.17940514 0.04733967]</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>carla_full_nms!A35</f>
         <v>0.3</v>
@@ -13139,32 +14282,32 @@
         <f>carla_full_nms!N35</f>
         <v>8.2332429290972495E-2</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <f>carla_full_nms!O35</f>
         <v>0.74657534246575297</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f>carla_full_nms!P35</f>
         <v>0.56637168141592897</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f>carla_full_nms!Q35</f>
         <v>0.42908653846153799</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f>carla_full_nms!R35</f>
         <v>0.71797520661156999</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f>carla_full_nms!S35</f>
         <v>0.86912065439672803</v>
       </c>
-      <c r="T35" t="str">
+      <c r="V35" t="str">
         <f>carla_full_nms!T35</f>
         <v xml:space="preserve"> [0.48952096 0.57450628 0.42449465 0.58674546 0.15041586]</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>carla_full_nms!A36</f>
         <v>0.3</v>
@@ -13221,32 +14364,32 @@
         <f>carla_full_nms!N36</f>
         <v>8.1109185441940998E-2</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <f>carla_full_nms!O36</f>
         <v>0.78538812785388101</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f>carla_full_nms!P36</f>
         <v>0.569911504424778</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f>carla_full_nms!Q36</f>
         <v>0.43028846153846101</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f>carla_full_nms!R36</f>
         <v>0.71694214876033002</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f>carla_full_nms!S36</f>
         <v>0.95705521472392596</v>
       </c>
-      <c r="T36" t="str">
+      <c r="V36" t="str">
         <f>carla_full_nms!T36</f>
         <v xml:space="preserve"> [0.48863636 0.57448707 0.42391948 0.5747412  0.14954466]</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>carla_full_nms!A37</f>
         <v>0.3</v>
@@ -13303,32 +14446,32 @@
         <f>carla_full_nms!N37</f>
         <v>7.4938949938949895E-2</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <f>carla_full_nms!O37</f>
         <v>0.79794520547945202</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <f>carla_full_nms!P37</f>
         <v>0.57345132743362803</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f>carla_full_nms!Q37</f>
         <v>0.43269230769230699</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f>carla_full_nms!R37</f>
         <v>0.72210743801652799</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f>carla_full_nms!S37</f>
         <v>1.0040899795500999</v>
       </c>
-      <c r="T37" t="str">
+      <c r="V37" t="str">
         <f>carla_full_nms!T37</f>
         <v xml:space="preserve"> [0.4758339  0.57446809 0.42352941 0.56099518 0.13946883]</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>carla_full_nms!A38</f>
         <v>0.3</v>
@@ -13385,32 +14528,32 @@
         <f>carla_full_nms!N38</f>
         <v>6.56498673740053E-2</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <f>carla_full_nms!O38</f>
         <v>0.80593607305935999</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <f>carla_full_nms!P38</f>
         <v>0.57345132743362803</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f>carla_full_nms!Q38</f>
         <v>0.42908653846153799</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f>carla_full_nms!R38</f>
         <v>0.72933884297520601</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f>carla_full_nms!S38</f>
         <v>1.0122699386503</v>
       </c>
-      <c r="T38" t="str">
+      <c r="V38" t="str">
         <f>carla_full_nms!T38</f>
         <v xml:space="preserve"> [0.44825397 0.56643357 0.41081703 0.53749524 0.12330303]</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>carla_full_nms!A39</f>
         <v>0.3</v>
@@ -13467,32 +14610,32 @@
         <f>carla_full_nms!N39</f>
         <v>5.9319099826889703E-2</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <f>carla_full_nms!O39</f>
         <v>0.82191780821917804</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <f>carla_full_nms!P39</f>
         <v>0.57699115044247695</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <f>carla_full_nms!Q39</f>
         <v>0.42788461538461497</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f>carla_full_nms!R39</f>
         <v>0.74380165289256195</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f>carla_full_nms!S39</f>
         <v>1.0511247443762699</v>
       </c>
-      <c r="T39" t="str">
+      <c r="V39" t="str">
         <f>carla_full_nms!T39</f>
         <v xml:space="preserve"> [0.41884817 0.55442177 0.39445983 0.49569707 0.11230063]</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>carla_full_nms!A40</f>
         <v>0.3</v>
@@ -13550,31 +14693,39 @@
         <v>5.1712295162398197E-2</v>
       </c>
       <c r="O40">
+        <f>SUM(J40:N40)/5</f>
+        <v>0.28365254638047366</v>
+      </c>
+      <c r="P40">
         <f>carla_full_nms!O40</f>
         <v>0.83447488584474805</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <f>carla_full_nms!P40</f>
         <v>0.57699115044247695</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <f>carla_full_nms!Q40</f>
         <v>0.43149038461538403</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f>carla_full_nms!R40</f>
         <v>0.75723140495867702</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <f>carla_full_nms!S40</f>
         <v>1.07770961145194</v>
       </c>
-      <c r="T40" t="str">
+      <c r="U40">
+        <f>SUM(P40:T40)/5</f>
+        <v>0.73557948746264523</v>
+      </c>
+      <c r="V40" t="str">
         <f>carla_full_nms!T40</f>
         <v xml:space="preserve"> [0.37106599 0.5266559  0.37513062 0.44169931 0.09868914]</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>carla_full_nms!A41</f>
         <v>0.3</v>
@@ -13631,32 +14782,32 @@
         <f>carla_full_nms!N41</f>
         <v>4.4651539708265797E-2</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <f>carla_full_nms!O41</f>
         <v>0.84246575342465702</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <f>carla_full_nms!P41</f>
         <v>0.58584070796460097</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <f>carla_full_nms!Q41</f>
         <v>0.4375</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f>carla_full_nms!R41</f>
         <v>0.76446280991735505</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <f>carla_full_nms!S41</f>
         <v>1.12678936605316</v>
       </c>
-      <c r="T41" t="str">
+      <c r="V41" t="str">
         <f>carla_full_nms!T41</f>
         <v xml:space="preserve"> [0.31626312 0.49329359 0.34323432 0.37345445 0.08589913]</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>carla_full_nms!A42</f>
         <v>0.3</v>
@@ -13713,32 +14864,32 @@
         <f>carla_full_nms!N42</f>
         <v>3.8126729199001202E-2</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <f>carla_full_nms!O42</f>
         <v>0.85159817351598099</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <f>carla_full_nms!P42</f>
         <v>0.59469026548672499</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f>carla_full_nms!Q42</f>
         <v>0.4375</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f>carla_full_nms!R42</f>
         <v>0.77169421487603296</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f>carla_full_nms!S42</f>
         <v>1.15541922290388</v>
       </c>
-      <c r="T42" t="str">
+      <c r="V42" t="str">
         <f>carla_full_nms!T42</f>
         <v xml:space="preserve"> [0.26015693 0.42720915 0.29605531 0.30341186 0.07381761]</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>carla_full_nms!A43</f>
         <v>0.3</v>
@@ -13795,32 +14946,32 @@
         <f>carla_full_nms!N43</f>
         <v>3.3168172544447601E-2</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <f>carla_full_nms!O43</f>
         <v>0.852739726027397</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <f>carla_full_nms!P43</f>
         <v>0.60707964601769904</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <f>carla_full_nms!Q43</f>
         <v>0.441105769230769</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f>carla_full_nms!R43</f>
         <v>0.77066115702479299</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f>carla_full_nms!S43</f>
         <v>1.1635991820040901</v>
       </c>
-      <c r="T43" t="str">
+      <c r="V43" t="str">
         <f>carla_full_nms!T43</f>
         <v xml:space="preserve"> [0.21321536 0.33726647 0.25162839 0.24661157 0.06449785]</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>carla_full_nms!A44</f>
         <v>0.3</v>
@@ -13877,32 +15028,32 @@
         <f>carla_full_nms!N44</f>
         <v>3.02917574533666E-2</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <f>carla_full_nms!O44</f>
         <v>0.85730593607305905</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <f>carla_full_nms!P44</f>
         <v>0.608849557522123</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <f>carla_full_nms!Q44</f>
         <v>0.441105769230769</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f>carla_full_nms!R44</f>
         <v>0.77169421487603296</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f>carla_full_nms!S44</f>
         <v>1.1656441717791399</v>
       </c>
-      <c r="T44" t="str">
+      <c r="V44" t="str">
         <f>carla_full_nms!T44</f>
         <v xml:space="preserve"> [0.17925767 0.27630522 0.22419059 0.20848451 0.059049  ]</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>carla_full_nms!A45</f>
         <v>0.3</v>
@@ -13959,32 +15110,32 @@
         <f>carla_full_nms!N45</f>
         <v>2.9929115253347301E-2</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <f>carla_full_nms!O45</f>
         <v>0.85730593607305905</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <f>carla_full_nms!P45</f>
         <v>0.61061946902654796</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <f>carla_full_nms!Q45</f>
         <v>0.441105769230769</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f>carla_full_nms!R45</f>
         <v>0.77169421487603296</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f>carla_full_nms!S45</f>
         <v>1.1656441717791399</v>
       </c>
-      <c r="T45" t="str">
+      <c r="V45" t="str">
         <f>carla_full_nms!T45</f>
         <v xml:space="preserve"> [0.17054616 0.26879626 0.22055288 0.2024939  0.05835978]</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>carla_full_nms!A46</f>
         <v>0.4</v>
@@ -14041,32 +15192,32 @@
         <f>carla_full_nms!N46</f>
         <v>9.4741513201686195E-2</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <f>carla_full_nms!O46</f>
         <v>0.73630136986301298</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <f>carla_full_nms!P46</f>
         <v>0.55044247787610601</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <f>carla_full_nms!Q46</f>
         <v>0.41947115384615302</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f>carla_full_nms!R46</f>
         <v>0.71280991735537103</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f>carla_full_nms!S46</f>
         <v>0.87321063394682996</v>
       </c>
-      <c r="T46" t="str">
+      <c r="V46" t="str">
         <f>carla_full_nms!T46</f>
         <v xml:space="preserve"> [0.50887574 0.57592593 0.42980296 0.5974026  0.17093675]</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>carla_full_nms!A47</f>
         <v>0.4</v>
@@ -14123,32 +15274,32 @@
         <f>carla_full_nms!N47</f>
         <v>9.4221864304409098E-2</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <f>carla_full_nms!O47</f>
         <v>0.76940639269406397</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <f>carla_full_nms!P47</f>
         <v>0.55398230088495504</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <f>carla_full_nms!Q47</f>
         <v>0.41947115384615302</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f>carla_full_nms!R47</f>
         <v>0.71590909090909005</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f>carla_full_nms!S47</f>
         <v>0.95705521472392596</v>
       </c>
-      <c r="T47" t="str">
+      <c r="V47" t="str">
         <f>carla_full_nms!T47</f>
         <v xml:space="preserve"> [0.50753012 0.57749077 0.42822086 0.59079284 0.17155425]</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>carla_full_nms!A48</f>
         <v>0.4</v>
@@ -14205,32 +15356,32 @@
         <f>carla_full_nms!N48</f>
         <v>8.8683351468987995E-2</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <f>carla_full_nms!O48</f>
         <v>0.78652968036529602</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <f>carla_full_nms!P48</f>
         <v>0.55752212389380496</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <f>carla_full_nms!Q48</f>
         <v>0.421875</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f>carla_full_nms!R48</f>
         <v>0.72004132231404905</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f>carla_full_nms!S48</f>
         <v>1</v>
       </c>
-      <c r="T48" t="str">
+      <c r="V48" t="str">
         <f>carla_full_nms!T48</f>
         <v xml:space="preserve"> [0.50127319 0.57745188 0.42857143 0.58156028 0.16291854]</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>carla_full_nms!A49</f>
         <v>0.4</v>
@@ -14287,32 +15438,32 @@
         <f>carla_full_nms!N49</f>
         <v>7.9556412729025999E-2</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <f>carla_full_nms!O49</f>
         <v>0.79337899543378998</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <f>carla_full_nms!P49</f>
         <v>0.55752212389380496</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <f>carla_full_nms!Q49</f>
         <v>0.41826923076923</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f>carla_full_nms!R49</f>
         <v>0.72623966942148699</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f>carla_full_nms!S49</f>
         <v>1.0122699386503</v>
       </c>
-      <c r="T49" t="str">
+      <c r="V49" t="str">
         <f>carla_full_nms!T49</f>
         <v xml:space="preserve"> [0.47619048 0.57324841 0.41801802 0.5648855  0.147519  ]</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>carla_full_nms!A50</f>
         <v>0.4</v>
@@ -14369,32 +15520,32 @@
         <f>carla_full_nms!N50</f>
         <v>7.25498515061518E-2</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <f>carla_full_nms!O50</f>
         <v>0.807077625570776</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <f>carla_full_nms!P50</f>
         <v>0.56106194690265399</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <f>carla_full_nms!Q50</f>
         <v>0.41225961538461497</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f>carla_full_nms!R50</f>
         <v>0.74173553719008201</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <f>carla_full_nms!S50</f>
         <v>1.04907975460122</v>
       </c>
-      <c r="T50" t="str">
+      <c r="V50" t="str">
         <f>carla_full_nms!T50</f>
         <v xml:space="preserve"> [0.44988864 0.56810036 0.40140433 0.52891344 0.13571429]</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>carla_full_nms!A51</f>
         <v>0.4</v>
@@ -14452,31 +15603,39 @@
         <v>6.3822027716994897E-2</v>
       </c>
       <c r="O51">
+        <f>SUM(J51:N51)/5</f>
+        <v>0.3137083021472204</v>
+      </c>
+      <c r="P51">
         <f>carla_full_nms!O51</f>
         <v>0.81506849315068497</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <f>carla_full_nms!P51</f>
         <v>0.56106194690265399</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <f>carla_full_nms!Q51</f>
         <v>0.41826923076923</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f>carla_full_nms!R51</f>
         <v>0.75309917355371903</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f>carla_full_nms!S51</f>
         <v>1.0736196319018401</v>
       </c>
-      <c r="T51" t="str">
+      <c r="U51">
+        <f>SUM(P51:T51)/5</f>
+        <v>0.72422369525562558</v>
+      </c>
+      <c r="V51" t="str">
         <f>carla_full_nms!T51</f>
         <v xml:space="preserve"> [0.40293454 0.54467354 0.38709677 0.47569331 0.12048193]</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>carla_full_nms!A52</f>
         <v>0.4</v>
@@ -14533,32 +15692,32 @@
         <f>carla_full_nms!N52</f>
         <v>5.5032878098128402E-2</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <f>carla_full_nms!O52</f>
         <v>0.82305936073059305</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <f>carla_full_nms!P52</f>
         <v>0.569911504424778</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <f>carla_full_nms!Q52</f>
         <v>0.42427884615384598</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f>carla_full_nms!R52</f>
         <v>0.75929752066115697</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <f>carla_full_nms!S52</f>
         <v>1.11247443762781</v>
       </c>
-      <c r="T52" t="str">
+      <c r="V52" t="str">
         <f>carla_full_nms!T52</f>
         <v xml:space="preserve"> [0.34822507 0.51314741 0.3600204  0.40901503 0.10487758]</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>carla_full_nms!A53</f>
         <v>0.4</v>
@@ -14615,32 +15774,32 @@
         <f>carla_full_nms!N53</f>
         <v>4.6576032225579003E-2</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <f>carla_full_nms!O53</f>
         <v>0.83105022831050201</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <f>carla_full_nms!P53</f>
         <v>0.57522123893805299</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <f>carla_full_nms!Q53</f>
         <v>0.42427884615384598</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f>carla_full_nms!R53</f>
         <v>0.76756198347107396</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <f>carla_full_nms!S53</f>
         <v>1.1349693251533699</v>
       </c>
-      <c r="T53" t="str">
+      <c r="V53" t="str">
         <f>carla_full_nms!T53</f>
         <v xml:space="preserve"> [0.29085098 0.45391061 0.31461676 0.33989021 0.08948005]</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>carla_full_nms!A54</f>
         <v>0.4</v>
@@ -14697,32 +15856,32 @@
         <f>carla_full_nms!N54</f>
         <v>4.0401850245735699E-2</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <f>carla_full_nms!O54</f>
         <v>0.83219178082191703</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <f>carla_full_nms!P54</f>
         <v>0.58584070796460097</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <f>carla_full_nms!Q54</f>
         <v>0.42668269230769201</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f>carla_full_nms!R54</f>
         <v>0.76859504132231404</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f>carla_full_nms!S54</f>
         <v>1.14314928425357</v>
       </c>
-      <c r="T54" t="str">
+      <c r="V54" t="str">
         <f>carla_full_nms!T54</f>
         <v xml:space="preserve"> [0.239134   0.36313769 0.26955201 0.27823485 0.07804538]</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>carla_full_nms!A55</f>
         <v>0.4</v>
@@ -14779,32 +15938,32 @@
         <f>carla_full_nms!N55</f>
         <v>3.67044635249393E-2</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <f>carla_full_nms!O55</f>
         <v>0.83561643835616395</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <f>carla_full_nms!P55</f>
         <v>0.589380530973451</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <f>carla_full_nms!Q55</f>
         <v>0.42668269230769201</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f>carla_full_nms!R55</f>
         <v>0.76962809917355302</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <f>carla_full_nms!S55</f>
         <v>1.1451942740286201</v>
       </c>
-      <c r="T55" t="str">
+      <c r="V55" t="str">
         <f>carla_full_nms!T55</f>
         <v xml:space="preserve"> [0.2006029  0.29665924 0.24067797 0.23401916 0.07112918]</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>carla_full_nms!A56</f>
         <v>0.4</v>
@@ -14861,32 +16020,32 @@
         <f>carla_full_nms!N56</f>
         <v>3.6245954692556599E-2</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <f>carla_full_nms!O56</f>
         <v>0.83561643835616395</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <f>carla_full_nms!P56</f>
         <v>0.59115044247787596</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <f>carla_full_nms!Q56</f>
         <v>0.42668269230769201</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f>carla_full_nms!R56</f>
         <v>0.76962809917355302</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <f>carla_full_nms!S56</f>
         <v>1.1451942740286201</v>
       </c>
-      <c r="T56" t="str">
+      <c r="V56" t="str">
         <f>carla_full_nms!T56</f>
         <v xml:space="preserve"> [0.19077404 0.28842832 0.23666667 0.22706492 0.0702679 ]</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>carla_full_nms!A57</f>
         <v>0.5</v>
@@ -14943,32 +16102,32 @@
         <f>carla_full_nms!N57</f>
         <v>0.107785949784428</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <f>carla_full_nms!O57</f>
         <v>0.72945205479452002</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <f>carla_full_nms!P57</f>
         <v>0.53982300884955703</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <f>carla_full_nms!Q57</f>
         <v>0.40625</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <f>carla_full_nms!R57</f>
         <v>0.70661157024793297</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <f>carla_full_nms!S57</f>
         <v>0.86912065439672803</v>
       </c>
-      <c r="T57" t="str">
+      <c r="V57" t="str">
         <f>carla_full_nms!T57</f>
         <v xml:space="preserve"> [0.52744532 0.5738476  0.42975207 0.60908281 0.191787  ]</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>carla_full_nms!A58</f>
         <v>0.5</v>
@@ -15025,32 +16184,32 @@
         <f>carla_full_nms!N58</f>
         <v>0.10790697674418601</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <f>carla_full_nms!O58</f>
         <v>0.76255707762557001</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <f>carla_full_nms!P58</f>
         <v>0.54336283185840695</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <f>carla_full_nms!Q58</f>
         <v>0.40745192307692302</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f>carla_full_nms!R58</f>
         <v>0.70661157024793297</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <f>carla_full_nms!S58</f>
         <v>0.94887525562372099</v>
       </c>
-      <c r="T58" t="str">
+      <c r="V58" t="str">
         <f>carla_full_nms!T58</f>
         <v xml:space="preserve"> [0.53079062 0.57490637 0.43047619 0.60370697 0.19377741]</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>carla_full_nms!A59</f>
         <v>0.5</v>
@@ -15107,32 +16266,32 @@
         <f>carla_full_nms!N59</f>
         <v>0.10307955517536301</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <f>carla_full_nms!O59</f>
         <v>0.77625570776255703</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <f>carla_full_nms!P59</f>
         <v>0.54690265486725598</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <f>carla_full_nms!Q59</f>
         <v>0.41105769230769201</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <f>carla_full_nms!R59</f>
         <v>0.70764462809917295</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <f>carla_full_nms!S59</f>
         <v>0.98568507157464202</v>
       </c>
-      <c r="T59" t="str">
+      <c r="V59" t="str">
         <f>carla_full_nms!T59</f>
         <v xml:space="preserve"> [0.52672347 0.57541899 0.43291139 0.59773124 0.18664085]</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>carla_full_nms!A60</f>
         <v>0.5</v>
@@ -15189,32 +16348,32 @@
         <f>carla_full_nms!N60</f>
         <v>9.2773624688518297E-2</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <f>carla_full_nms!O60</f>
         <v>0.78310502283104999</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <f>carla_full_nms!P60</f>
         <v>0.54690265486725598</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <f>carla_full_nms!Q60</f>
         <v>0.41225961538461497</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <f>carla_full_nms!R60</f>
         <v>0.71074380165289197</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <f>carla_full_nms!S60</f>
         <v>0.98977505112474395</v>
       </c>
-      <c r="T60" t="str">
+      <c r="V60" t="str">
         <f>carla_full_nms!T60</f>
         <v xml:space="preserve"> [0.50441176 0.57328386 0.43117536 0.58354538 0.16964599]</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>carla_full_nms!A61</f>
         <v>0.5</v>
@@ -15271,32 +16430,32 @@
         <f>carla_full_nms!N61</f>
         <v>8.4860828241683603E-2</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <f>carla_full_nms!O61</f>
         <v>0.79680365296803601</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <f>carla_full_nms!P61</f>
         <v>0.55044247787610601</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <f>carla_full_nms!Q61</f>
         <v>0.40504807692307598</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <f>carla_full_nms!R61</f>
         <v>0.72417355371900805</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <f>carla_full_nms!S61</f>
         <v>1.0224948875255599</v>
       </c>
-      <c r="T61" t="str">
+      <c r="V61" t="str">
         <f>carla_full_nms!T61</f>
         <v xml:space="preserve"> [0.48055077 0.57274401 0.41425937 0.54894283 0.15671525]</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>carla_full_nms!A62</f>
         <v>0.5</v>
@@ -15354,31 +16513,39 @@
         <v>7.5477239353891307E-2</v>
       </c>
       <c r="O62">
+        <f>SUM(J62:N62)/5</f>
+        <v>0.34344911551681151</v>
+      </c>
+      <c r="P62">
         <f>carla_full_nms!O62</f>
         <v>0.80251141552511396</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <f>carla_full_nms!P62</f>
         <v>0.55398230088495504</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <f>carla_full_nms!Q62</f>
         <v>0.409855769230769</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <f>carla_full_nms!R62</f>
         <v>0.73657024793388404</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <f>carla_full_nms!S62</f>
         <v>1.0511247443762699</v>
       </c>
-      <c r="T62" t="str">
+      <c r="U62">
+        <f>SUM(P62:T62)/5</f>
+        <v>0.71080889559019833</v>
+      </c>
+      <c r="V62" t="str">
         <f>carla_full_nms!T62</f>
         <v xml:space="preserve"> [0.43786982 0.5569395  0.4035503  0.50424328 0.14084121]</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>carla_full_nms!A63</f>
         <v>0.5</v>
@@ -15435,32 +16602,32 @@
         <f>carla_full_nms!N63</f>
         <v>6.5195835399107505E-2</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <f>carla_full_nms!O63</f>
         <v>0.807077625570776</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <f>carla_full_nms!P63</f>
         <v>0.56283185840707906</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <f>carla_full_nms!Q63</f>
         <v>0.41346153846153799</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <f>carla_full_nms!R63</f>
         <v>0.74070247933884203</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <f>carla_full_nms!S63</f>
         <v>1.0756646216768899</v>
       </c>
-      <c r="T63" t="str">
+      <c r="V63" t="str">
         <f>carla_full_nms!T63</f>
         <v xml:space="preserve"> [0.38082413 0.53580455 0.37969095 0.43746187 0.12294028]</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>carla_full_nms!A64</f>
         <v>0.5</v>
@@ -15517,32 +16684,32 @@
         <f>carla_full_nms!N64</f>
         <v>5.5400516795865599E-2</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <f>carla_full_nms!O64</f>
         <v>0.81621004566209998</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <f>carla_full_nms!P64</f>
         <v>0.56814159292035304</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <f>carla_full_nms!Q64</f>
         <v>0.41346153846153799</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <f>carla_full_nms!R64</f>
         <v>0.75103305785123897</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <f>carla_full_nms!S64</f>
         <v>1.0961145194274</v>
       </c>
-      <c r="T64" t="str">
+      <c r="V64" t="str">
         <f>carla_full_nms!T64</f>
         <v xml:space="preserve"> [0.32221721 0.4845283  0.33858268 0.36745009 0.10547029]</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>carla_full_nms!A65</f>
         <v>0.5</v>
@@ -15599,32 +16766,32 @@
         <f>carla_full_nms!N65</f>
         <v>4.79148181011535E-2</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <f>carla_full_nms!O65</f>
         <v>0.81735159817351599</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <f>carla_full_nms!P65</f>
         <v>0.57876106194690202</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <f>carla_full_nms!Q65</f>
         <v>0.41346153846153799</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <f>carla_full_nms!R65</f>
         <v>0.75206611570247905</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <f>carla_full_nms!S65</f>
         <v>1.1042944785276001</v>
       </c>
-      <c r="T65" t="str">
+      <c r="V65" t="str">
         <f>carla_full_nms!T65</f>
         <v xml:space="preserve"> [0.26587449 0.3939759  0.29177269 0.30327015 0.09184454]</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>carla_full_nms!A66</f>
         <v>0.5</v>
@@ -15681,32 +16848,32 @@
         <f>carla_full_nms!N66</f>
         <v>4.3363257454312201E-2</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <f>carla_full_nms!O66</f>
         <v>0.82077625570776203</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <f>carla_full_nms!P66</f>
         <v>0.58230088495575205</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <f>carla_full_nms!Q66</f>
         <v>0.41346153846153799</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <f>carla_full_nms!R66</f>
         <v>0.754132231404958</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <f>carla_full_nms!S66</f>
         <v>1.10633946830265</v>
       </c>
-      <c r="T66" t="str">
+      <c r="V66" t="str">
         <f>carla_full_nms!T66</f>
         <v xml:space="preserve"> [0.2231187  0.3222331  0.2611997  0.25546807 0.08345546]</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>carla_full_nms!A67</f>
         <v>0.5</v>
@@ -15763,32 +16930,32 @@
         <f>carla_full_nms!N67</f>
         <v>4.2787092692186002E-2</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <f>carla_full_nms!O67</f>
         <v>0.82077625570776203</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <f>carla_full_nms!P67</f>
         <v>0.58407079646017701</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <f>carla_full_nms!Q67</f>
         <v>0.41346153846153799</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <f>carla_full_nms!R67</f>
         <v>0.754132231404958</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <f>carla_full_nms!S67</f>
         <v>1.10633946830265</v>
       </c>
-      <c r="T67" t="str">
+      <c r="V67" t="str">
         <f>carla_full_nms!T67</f>
         <v xml:space="preserve"> [0.21190687 0.31353919 0.25642937 0.24754154 0.08238788]</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>carla_full_nms!A68</f>
         <v>0.6</v>
@@ -15845,32 +17012,32 @@
         <f>carla_full_nms!N68</f>
         <v>0.122241579558652</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <f>carla_full_nms!O68</f>
         <v>0.72488584474885798</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <f>carla_full_nms!P68</f>
         <v>0.52920353982300805</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <f>carla_full_nms!Q68</f>
         <v>0.40024038461538403</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <f>carla_full_nms!R68</f>
         <v>0.69008264462809898</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <f>carla_full_nms!S68</f>
         <v>0.86094069529652295</v>
       </c>
-      <c r="T68" t="str">
+      <c r="V68" t="str">
         <f>carla_full_nms!T68</f>
         <v xml:space="preserve"> [0.54553265 0.57279693 0.43931398 0.61004566 0.21408594]</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>carla_full_nms!A69</f>
         <v>0.6</v>
@@ -15927,32 +17094,32 @@
         <f>carla_full_nms!N69</f>
         <v>0.123176661264181</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <f>carla_full_nms!O69</f>
         <v>0.75342465753424603</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <f>carla_full_nms!P69</f>
         <v>0.53274336283185797</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <f>carla_full_nms!Q69</f>
         <v>0.40144230769230699</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <f>carla_full_nms!R69</f>
         <v>0.69008264462809898</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <f>carla_full_nms!S69</f>
         <v>0.93251533742331205</v>
       </c>
-      <c r="T69" t="str">
+      <c r="V69" t="str">
         <f>carla_full_nms!T69</f>
         <v xml:space="preserve"> [0.54908486 0.57442748 0.44034278 0.6061706  0.21760916]</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>carla_full_nms!A70</f>
         <v>0.6</v>
@@ -16009,32 +17176,32 @@
         <f>carla_full_nms!N70</f>
         <v>0.11901159858799699</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <f>carla_full_nms!O70</f>
         <v>0.76712328767123195</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <f>carla_full_nms!P70</f>
         <v>0.536283185840708</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <f>carla_full_nms!Q70</f>
         <v>0.40504807692307598</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <f>carla_full_nms!R70</f>
         <v>0.69214876033057804</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <f>carla_full_nms!S70</f>
         <v>0.96523517382413004</v>
       </c>
-      <c r="T70" t="str">
+      <c r="V70" t="str">
         <f>carla_full_nms!T70</f>
         <v xml:space="preserve"> [0.54812398 0.57495256 0.44342105 0.60496614 0.21189675]</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>carla_full_nms!A71</f>
         <v>0.6</v>
@@ -16091,32 +17258,32 @@
         <f>carla_full_nms!N71</f>
         <v>0.109935602575896</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <f>carla_full_nms!O71</f>
         <v>0.77397260273972601</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <f>carla_full_nms!P71</f>
         <v>0.536283185840708</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <f>carla_full_nms!Q71</f>
         <v>0.40745192307692302</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <f>carla_full_nms!R71</f>
         <v>0.69524793388429695</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <f>carla_full_nms!S71</f>
         <v>0.97750511247443705</v>
       </c>
-      <c r="T71" t="str">
+      <c r="V71" t="str">
         <f>carla_full_nms!T71</f>
         <v xml:space="preserve"> [0.52660194 0.57386364 0.44342708 0.59531181 0.19764317]</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>carla_full_nms!A72</f>
         <v>0.6</v>
@@ -16173,32 +17340,32 @@
         <f>carla_full_nms!N72</f>
         <v>0.10209153033754401</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <f>carla_full_nms!O72</f>
         <v>0.78881278538812705</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <f>carla_full_nms!P72</f>
         <v>0.53805309734513196</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <f>carla_full_nms!Q72</f>
         <v>0.39903846153846101</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <f>carla_full_nms!R72</f>
         <v>0.70454545454545403</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <f>carla_full_nms!S72</f>
         <v>1.0081799591002001</v>
       </c>
-      <c r="T72" t="str">
+      <c r="V72" t="str">
         <f>carla_full_nms!T72</f>
         <v xml:space="preserve"> [0.50696992 0.5730443  0.42728443 0.56503728 0.18540805]</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>carla_full_nms!A73</f>
         <v>0.6</v>
@@ -16256,31 +17423,39 @@
         <v>9.1601668782876802E-2</v>
       </c>
       <c r="O73">
+        <f>SUM(J73:N73)/5</f>
+        <v>0.37057965578471913</v>
+      </c>
+      <c r="P73">
         <f>carla_full_nms!O73</f>
         <v>0.79337899543378998</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <f>carla_full_nms!P73</f>
         <v>0.54159292035398199</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <f>carla_full_nms!Q73</f>
         <v>0.40024038461538403</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <f>carla_full_nms!R73</f>
         <v>0.72004132231404905</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <f>carla_full_nms!S73</f>
         <v>1.0327198364008101</v>
       </c>
-      <c r="T73" t="str">
+      <c r="U73">
+        <f>SUM(P73:T73)/5</f>
+        <v>0.69759469182360301</v>
+      </c>
+      <c r="V73" t="str">
         <f>carla_full_nms!T73</f>
         <v xml:space="preserve"> [0.46848669 0.56043956 0.41547099 0.52763058 0.16827724]</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>carla_full_nms!A74</f>
         <v>0.6</v>
@@ -16337,32 +17512,32 @@
         <f>carla_full_nms!N74</f>
         <v>7.9102167182662497E-2</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <f>carla_full_nms!O74</f>
         <v>0.79680365296803601</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <f>carla_full_nms!P74</f>
         <v>0.54336283185840695</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <f>carla_full_nms!Q74</f>
         <v>0.40384615384615302</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <f>carla_full_nms!R74</f>
         <v>0.72727272727272696</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <f>carla_full_nms!S74</f>
         <v>1.0449897750511199</v>
       </c>
-      <c r="T74" t="str">
+      <c r="V74" t="str">
         <f>carla_full_nms!T74</f>
         <v xml:space="preserve"> [0.41375222 0.53954306 0.39646018 0.46576249 0.14707152]</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>carla_full_nms!A75</f>
         <v>0.6</v>
@@ -16419,32 +17594,32 @@
         <f>carla_full_nms!N75</f>
         <v>6.7436130203605199E-2</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <f>carla_full_nms!O75</f>
         <v>0.80251141552511396</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <f>carla_full_nms!P75</f>
         <v>0.55044247787610601</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <f>carla_full_nms!Q75</f>
         <v>0.40625</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <f>carla_full_nms!R75</f>
         <v>0.73450413223140498</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <f>carla_full_nms!S75</f>
         <v>1.0633946830265799</v>
       </c>
-      <c r="T75" t="str">
+      <c r="V75" t="str">
         <f>carla_full_nms!T75</f>
         <v xml:space="preserve"> [0.35433468 0.4976     0.36034115 0.39576955 0.12682927]</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>carla_full_nms!A76</f>
         <v>0.6</v>
@@ -16501,32 +17676,32 @@
         <f>carla_full_nms!N76</f>
         <v>5.7911637692392798E-2</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <f>carla_full_nms!O76</f>
         <v>0.80593607305935999</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <f>carla_full_nms!P76</f>
         <v>0.56106194690265399</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <f>carla_full_nms!Q76</f>
         <v>0.40745192307692302</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <f>carla_full_nms!R76</f>
         <v>0.73863636363636298</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <f>carla_full_nms!S76</f>
         <v>1.0695296523517299</v>
       </c>
-      <c r="T76" t="str">
+      <c r="V76" t="str">
         <f>carla_full_nms!T76</f>
         <v xml:space="preserve"> [0.29576875 0.41546527 0.31652661 0.33124855 0.10987395]</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>carla_full_nms!A77</f>
         <v>0.6</v>
@@ -16583,32 +17758,32 @@
         <f>carla_full_nms!N77</f>
         <v>5.2139303482587003E-2</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <f>carla_full_nms!O77</f>
         <v>0.80821917808219101</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <f>carla_full_nms!P77</f>
         <v>0.56283185840707906</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <f>carla_full_nms!Q77</f>
         <v>0.40745192307692302</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <f>carla_full_nms!R77</f>
         <v>0.73966942148760295</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <f>carla_full_nms!S77</f>
         <v>1.07157464212678</v>
       </c>
-      <c r="T77" t="str">
+      <c r="V77" t="str">
         <f>carla_full_nms!T77</f>
         <v xml:space="preserve"> [0.24903271 0.34175175 0.2847543  0.28001564 0.09944017]</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>carla_full_nms!A78</f>
         <v>0.6</v>
@@ -16665,32 +17840,32 @@
         <f>carla_full_nms!N78</f>
         <v>5.1458312874398497E-2</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <f>carla_full_nms!O78</f>
         <v>0.80821917808219101</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <f>carla_full_nms!P78</f>
         <v>0.56460176991150401</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <f>carla_full_nms!Q78</f>
         <v>0.40745192307692302</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <f>carla_full_nms!R78</f>
         <v>0.73966942148760295</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <f>carla_full_nms!S78</f>
         <v>1.07157464212678</v>
       </c>
-      <c r="T78" t="str">
+      <c r="V78" t="str">
         <f>carla_full_nms!T78</f>
         <v xml:space="preserve"> [0.23655195 0.33315927 0.27970297 0.27090428 0.0982009 ]</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>carla_full_nms!A79</f>
         <v>0.7</v>
@@ -16747,32 +17922,32 @@
         <f>carla_full_nms!N79</f>
         <v>0.14415322580645101</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <f>carla_full_nms!O79</f>
         <v>0.70890410958904104</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <f>carla_full_nms!P79</f>
         <v>0.52389380530973395</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <f>carla_full_nms!Q79</f>
         <v>0.38701923076923</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <f>carla_full_nms!R79</f>
         <v>0.68285123966942096</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <f>carla_full_nms!S79</f>
         <v>0.877300613496932</v>
       </c>
-      <c r="T79" t="str">
+      <c r="V79" t="str">
         <f>carla_full_nms!T79</f>
         <v xml:space="preserve"> [0.55620242 0.57643622 0.44815588 0.61833489 0.24761905]</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>carla_full_nms!A80</f>
         <v>0.7</v>
@@ -16829,32 +18004,32 @@
         <f>carla_full_nms!N80</f>
         <v>0.145437262357414</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <f>carla_full_nms!O80</f>
         <v>0.74086757990867502</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <f>carla_full_nms!P80</f>
         <v>0.52566371681415902</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <f>carla_full_nms!Q80</f>
         <v>0.38581730769230699</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <f>carla_full_nms!R80</f>
         <v>0.68285123966942096</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <f>carla_full_nms!S80</f>
         <v>0.93865030674846595</v>
       </c>
-      <c r="T80" t="str">
+      <c r="V80" t="str">
         <f>carla_full_nms!T80</f>
         <v xml:space="preserve"> [0.56434783 0.57613967 0.44614315 0.61660448 0.25185185]</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>carla_full_nms!A81</f>
         <v>0.7</v>
@@ -16911,32 +18086,32 @@
         <f>carla_full_nms!N81</f>
         <v>0.14268512944009601</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <f>carla_full_nms!O81</f>
         <v>0.75456621004566204</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <f>carla_full_nms!P81</f>
         <v>0.52920353982300805</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <f>carla_full_nms!Q81</f>
         <v>0.38942307692307598</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <f>carla_full_nms!R81</f>
         <v>0.68388429752066104</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <f>carla_full_nms!S81</f>
         <v>0.96932515337423297</v>
       </c>
-      <c r="T81" t="str">
+      <c r="V81" t="str">
         <f>carla_full_nms!T81</f>
         <v xml:space="preserve"> [0.5664096  0.57777778 0.44937587 0.61524164 0.24875361]</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>carla_full_nms!A82</f>
         <v>0.7</v>
@@ -16993,32 +18168,32 @@
         <f>carla_full_nms!N82</f>
         <v>0.133650882600168</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <f>carla_full_nms!O82</f>
         <v>0.76369863013698602</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <f>carla_full_nms!P82</f>
         <v>0.53097345132743301</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <f>carla_full_nms!Q82</f>
         <v>0.390625</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <f>carla_full_nms!R82</f>
         <v>0.68491735537190002</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <f>carla_full_nms!S82</f>
         <v>0.97546012269938598</v>
       </c>
-      <c r="T82" t="str">
+      <c r="V82" t="str">
         <f>carla_full_nms!T82</f>
         <v xml:space="preserve"> [0.5519802  0.57915058 0.44982699 0.60853603 0.23509118]</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>carla_full_nms!A83</f>
         <v>0.7</v>
@@ -17075,32 +18250,32 @@
         <f>carla_full_nms!N83</f>
         <v>0.12519201228878599</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <f>carla_full_nms!O83</f>
         <v>0.77054794520547898</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <f>carla_full_nms!P83</f>
         <v>0.53097345132743301</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <f>carla_full_nms!Q83</f>
         <v>0.38581730769230699</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <f>carla_full_nms!R83</f>
         <v>0.69318181818181801</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <f>carla_full_nms!S83</f>
         <v>1</v>
       </c>
-      <c r="T83" t="str">
+      <c r="V83" t="str">
         <f>carla_full_nms!T83</f>
         <v xml:space="preserve"> [0.53066038 0.57747834 0.44002742 0.58398607 0.2225256 ]</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>carla_full_nms!A84</f>
         <v>0.7</v>
@@ -17158,31 +18333,39 @@
         <v>0.114005026273703</v>
       </c>
       <c r="O84">
+        <f>SUM(J84:N84)/5</f>
+        <v>0.40686812319854437</v>
+      </c>
+      <c r="P84">
         <f>carla_full_nms!O84</f>
         <v>0.77511415525114102</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <f>carla_full_nms!P84</f>
         <v>0.53274336283185797</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <f>carla_full_nms!Q84</f>
         <v>0.38461538461538403</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <f>carla_full_nms!R84</f>
         <v>0.70661157024793297</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <f>carla_full_nms!S84</f>
         <v>1.0204498977505101</v>
       </c>
-      <c r="T84" t="str">
+      <c r="U84">
+        <f>SUM(P84:T84)/5</f>
+        <v>0.68390687413936524</v>
+      </c>
+      <c r="V84" t="str">
         <f>carla_full_nms!T84</f>
         <v xml:space="preserve"> [0.49926471 0.57061611 0.42895442 0.55205811 0.20509659]</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>carla_full_nms!A85</f>
         <v>0.7</v>
@@ -17239,32 +18422,32 @@
         <f>carla_full_nms!N85</f>
         <v>9.8968663228877402E-2</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <f>carla_full_nms!O85</f>
         <v>0.77853881278538795</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <f>carla_full_nms!P85</f>
         <v>0.53274336283185797</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <f>carla_full_nms!Q85</f>
         <v>0.38822115384615302</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <f>carla_full_nms!R85</f>
         <v>0.71074380165289197</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <f>carla_full_nms!S85</f>
         <v>1.0204498977505101</v>
       </c>
-      <c r="T85" t="str">
+      <c r="V85" t="str">
         <f>carla_full_nms!T85</f>
         <v xml:space="preserve"> [0.44853667 0.55330882 0.41436818 0.4940754  0.18043753]</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>carla_full_nms!A86</f>
         <v>0.7</v>
@@ -17321,32 +18504,32 @@
         <f>carla_full_nms!N86</f>
         <v>8.4720372836218305E-2</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <f>carla_full_nms!O86</f>
         <v>0.78538812785388101</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <f>carla_full_nms!P86</f>
         <v>0.536283185840708</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <f>carla_full_nms!Q86</f>
         <v>0.38701923076923</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <f>carla_full_nms!R86</f>
         <v>0.71900826446280997</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <f>carla_full_nms!S86</f>
         <v>1.04089979550102</v>
       </c>
-      <c r="T86" t="str">
+      <c r="V86" t="str">
         <f>carla_full_nms!T86</f>
         <v xml:space="preserve"> [0.39336764 0.51530612 0.38016529 0.42804428 0.1566877 ]</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>carla_full_nms!A87</f>
         <v>0.7</v>
@@ -17403,32 +18586,32 @@
         <f>carla_full_nms!N87</f>
         <v>7.25498515061518E-2</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <f>carla_full_nms!O87</f>
         <v>0.78652968036529602</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <f>carla_full_nms!P87</f>
         <v>0.54513274336283102</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <f>carla_full_nms!Q87</f>
         <v>0.38822115384615302</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <f>carla_full_nms!R87</f>
         <v>0.72314049586776796</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <f>carla_full_nms!S87</f>
         <v>1.04907975460122</v>
       </c>
-      <c r="T87" t="str">
+      <c r="V87" t="str">
         <f>carla_full_nms!T87</f>
         <v xml:space="preserve"> [0.3309318  0.43905916 0.33964248 0.3622251  0.13571429]</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>carla_full_nms!A88</f>
         <v>0.7</v>
@@ -17485,32 +18668,32 @@
         <f>carla_full_nms!N88</f>
         <v>6.5344520722095095E-2</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <f>carla_full_nms!O88</f>
         <v>0.78881278538812705</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <f>carla_full_nms!P88</f>
         <v>0.54690265486725598</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <f>carla_full_nms!Q88</f>
         <v>0.38822115384615302</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <f>carla_full_nms!R88</f>
         <v>0.72417355371900805</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <f>carla_full_nms!S88</f>
         <v>1.0511247443762699</v>
       </c>
-      <c r="T88" t="str">
+      <c r="V88" t="str">
         <f>carla_full_nms!T88</f>
         <v xml:space="preserve"> [0.27981373 0.36611374 0.30923887 0.30874257 0.1230401 ]</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>carla_full_nms!A89</f>
         <v>0.7</v>
@@ -17567,32 +18750,32 @@
         <f>carla_full_nms!N89</f>
         <v>6.43465197796695E-2</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <f>carla_full_nms!O89</f>
         <v>0.78881278538812705</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <f>carla_full_nms!P89</f>
         <v>0.54867256637168105</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <f>carla_full_nms!Q89</f>
         <v>0.38822115384615302</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <f>carla_full_nms!R89</f>
         <v>0.72417355371900805</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <f>carla_full_nms!S89</f>
         <v>1.0511247443762699</v>
       </c>
-      <c r="T89" t="str">
+      <c r="V89" t="str">
         <f>carla_full_nms!T89</f>
         <v xml:space="preserve"> [0.26628131 0.3587963  0.30442978 0.29829787 0.12126932]</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>carla_full_nms!A90</f>
         <v>0.8</v>
@@ -17649,32 +18832,32 @@
         <f>carla_full_nms!N90</f>
         <v>0.17119341563786</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <f>carla_full_nms!O90</f>
         <v>0.67579908675799005</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <f>carla_full_nms!P90</f>
         <v>0.49911504424778702</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <f>carla_full_nms!Q90</f>
         <v>0.35576923076923</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <f>carla_full_nms!R90</f>
         <v>0.66425619834710703</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <f>carla_full_nms!S90</f>
         <v>0.85071574642126702</v>
       </c>
-      <c r="T90" t="str">
+      <c r="V90" t="str">
         <f>carla_full_nms!T90</f>
         <v xml:space="preserve"> [0.56569517 0.57142857 0.43561442 0.62306202 0.28502912]</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>carla_full_nms!A91</f>
         <v>0.8</v>
@@ -17731,32 +18914,32 @@
         <f>carla_full_nms!N91</f>
         <v>0.17471535139379599</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <f>carla_full_nms!O91</f>
         <v>0.69520547945205402</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <f>carla_full_nms!P91</f>
         <v>0.50088495575221204</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <f>carla_full_nms!Q91</f>
         <v>0.35456730769230699</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <f>carla_full_nms!R91</f>
         <v>0.66632231404958597</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <f>carla_full_nms!S91</f>
         <v>0.91002044989774999</v>
       </c>
-      <c r="T91" t="str">
+      <c r="V91" t="str">
         <f>carla_full_nms!T91</f>
         <v xml:space="preserve"> [0.57022472 0.57229525 0.43382353 0.6237911  0.29314888]</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>carla_full_nms!A92</f>
         <v>0.8</v>
@@ -17813,32 +18996,32 @@
         <f>carla_full_nms!N92</f>
         <v>0.17301829268292601</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <f>carla_full_nms!O92</f>
         <v>0.70662100456621002</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <f>carla_full_nms!P92</f>
         <v>0.50265486725663699</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <f>carla_full_nms!Q92</f>
         <v>0.35697115384615302</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <f>carla_full_nms!R92</f>
         <v>0.66632231404958597</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <f>carla_full_nms!S92</f>
         <v>0.92842535787321001</v>
       </c>
-      <c r="T92" t="str">
+      <c r="V92" t="str">
         <f>carla_full_nms!T92</f>
         <v xml:space="preserve"> [0.57367933 0.57258065 0.43644379 0.6219865  0.29168005]</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>carla_full_nms!A93</f>
         <v>0.8</v>
@@ -17895,32 +19078,32 @@
         <f>carla_full_nms!N93</f>
         <v>0.164506839452843</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <f>carla_full_nms!O93</f>
         <v>0.715753424657534</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <f>carla_full_nms!P93</f>
         <v>0.50442477876106195</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <f>carla_full_nms!Q93</f>
         <v>0.35697115384615302</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <f>carla_full_nms!R93</f>
         <v>0.66632231404958597</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <f>carla_full_nms!S93</f>
         <v>0.93456032719836402</v>
       </c>
-      <c r="T93" t="str">
+      <c r="V93" t="str">
         <f>carla_full_nms!T93</f>
         <v xml:space="preserve"> [0.56588448 0.57401813 0.43644379 0.61752034 0.27976737]</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>carla_full_nms!A94</f>
         <v>0.8</v>
@@ -17977,32 +19160,32 @@
         <f>carla_full_nms!N94</f>
         <v>0.15614506380120799</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <f>carla_full_nms!O94</f>
         <v>0.72260273972602695</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <f>carla_full_nms!P94</f>
         <v>0.50442477876106195</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <f>carla_full_nms!Q94</f>
         <v>0.35576923076923</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <f>carla_full_nms!R94</f>
         <v>0.67458677685950397</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <f>carla_full_nms!S94</f>
         <v>0.95092024539877296</v>
       </c>
-      <c r="T94" t="str">
+      <c r="V94" t="str">
         <f>carla_full_nms!T94</f>
         <v xml:space="preserve"> [0.55163399 0.57286432 0.43211679 0.60239852 0.26824344]</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>carla_full_nms!A95</f>
         <v>0.8</v>
@@ -18060,31 +19243,39 @@
         <v>0.14425427872860599</v>
       </c>
       <c r="O95">
+        <f>SUM(J95:N95)/5</f>
+        <v>0.44361352493796141</v>
+      </c>
+      <c r="P95">
         <f>carla_full_nms!O95</f>
         <v>0.72488584474885798</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <f>carla_full_nms!P95</f>
         <v>0.50619469026548602</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <f>carla_full_nms!Q95</f>
         <v>0.35096153846153799</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <f>carla_full_nms!R95</f>
         <v>0.68285123966942096</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <f>carla_full_nms!S95</f>
         <v>0.96523517382413004</v>
       </c>
-      <c r="T95" t="str">
+      <c r="U95">
+        <f>SUM(P95:T95)/5</f>
+        <v>0.6460256973938866</v>
+      </c>
+      <c r="V95" t="str">
         <f>carla_full_nms!T95</f>
         <v xml:space="preserve"> [0.52392739 0.56858847 0.41954023 0.57303858 0.25099708]</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>carla_full_nms!A96</f>
         <v>0.8</v>
@@ -18141,32 +19332,32 @@
         <f>carla_full_nms!N96</f>
         <v>0.127498649378714</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <f>carla_full_nms!O96</f>
         <v>0.727168949771689</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <f>carla_full_nms!P96</f>
         <v>0.50619469026548602</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <f>carla_full_nms!Q96</f>
         <v>0.35456730769230699</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <f>carla_full_nms!R96</f>
         <v>0.68595041322313999</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <f>carla_full_nms!S96</f>
         <v>0.96523517382413004</v>
       </c>
-      <c r="T96" t="str">
+      <c r="V96" t="str">
         <f>carla_full_nms!T96</f>
         <v xml:space="preserve"> [0.48075472 0.55587949 0.41432584 0.52490119 0.22524457]</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>carla_full_nms!A97</f>
         <v>0.8</v>
@@ -18223,32 +19414,32 @@
         <f>carla_full_nms!N97</f>
         <v>0.111289951713037</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <f>carla_full_nms!O97</f>
         <v>0.73287671232876705</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <f>carla_full_nms!P97</f>
         <v>0.50973451327433605</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <f>carla_full_nms!Q97</f>
         <v>0.35456730769230699</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <f>carla_full_nms!R97</f>
         <v>0.69834710743801598</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <f>carla_full_nms!S97</f>
         <v>0.98977505112474395</v>
       </c>
-      <c r="T97" t="str">
+      <c r="V97" t="str">
         <f>carla_full_nms!T97</f>
         <v xml:space="preserve"> [0.42785738 0.52941176 0.38995373 0.46540448 0.20008268]</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>carla_full_nms!A98</f>
         <v>0.8</v>
@@ -18305,32 +19496,32 @@
         <f>carla_full_nms!N98</f>
         <v>9.4941634241245104E-2</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <f>carla_full_nms!O98</f>
         <v>0.73515981735159797</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <f>carla_full_nms!P98</f>
         <v>0.516814159292035</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <f>carla_full_nms!Q98</f>
         <v>0.35576923076923</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <f>carla_full_nms!R98</f>
         <v>0.70351239669421395</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <f>carla_full_nms!S98</f>
         <v>0.99795501022494804</v>
       </c>
-      <c r="T98" t="str">
+      <c r="V98" t="str">
         <f>carla_full_nms!T98</f>
         <v xml:space="preserve"> [0.36435644 0.46832398 0.35878788 0.40379484 0.17338781]</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>carla_full_nms!A99</f>
         <v>0.8</v>
@@ -18387,32 +19578,32 @@
         <f>carla_full_nms!N99</f>
         <v>8.5113774535348199E-2</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <f>carla_full_nms!O99</f>
         <v>0.73744292237442899</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <f>carla_full_nms!P99</f>
         <v>0.51858407079645996</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <f>carla_full_nms!Q99</f>
         <v>0.35576923076923</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <f>carla_full_nms!R99</f>
         <v>0.70351239669421395</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <f>carla_full_nms!S99</f>
         <v>1.0020449897750501</v>
       </c>
-      <c r="T99" t="str">
+      <c r="V99" t="str">
         <f>carla_full_nms!T99</f>
         <v xml:space="preserve"> [0.3112503  0.39755767 0.33146697 0.34887295 0.15690042]</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>carla_full_nms!A100</f>
         <v>0.8</v>
@@ -18469,32 +19660,32 @@
         <f>carla_full_nms!N100</f>
         <v>8.3717751580386093E-2</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <f>carla_full_nms!O100</f>
         <v>0.73744292237442899</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <f>carla_full_nms!P100</f>
         <v>0.52035398230088403</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <f>carla_full_nms!Q100</f>
         <v>0.35576923076923</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <f>carla_full_nms!R100</f>
         <v>0.70351239669421395</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <f>carla_full_nms!S100</f>
         <v>1.0020449897750501</v>
       </c>
-      <c r="T100" t="str">
+      <c r="V100" t="str">
         <f>carla_full_nms!T100</f>
         <v xml:space="preserve"> [0.29707979 0.39017916 0.32779623 0.33737924 0.15452539]</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>carla_full_nms!A101</f>
         <v>0.9</v>
@@ -18551,32 +19742,32 @@
         <f>carla_full_nms!N101</f>
         <v>0.221461187214611</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <f>carla_full_nms!O101</f>
         <v>0.63812785388127802</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <f>carla_full_nms!P101</f>
         <v>0.44247787610619399</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <f>carla_full_nms!Q101</f>
         <v>0.30288461538461497</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <f>carla_full_nms!R101</f>
         <v>0.61983471074380103</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <f>carla_full_nms!S101</f>
         <v>0.793456032719836</v>
       </c>
-      <c r="T101" t="str">
+      <c r="V101" t="str">
         <f>carla_full_nms!T101</f>
         <v xml:space="preserve"> [0.59499734 0.53705693 0.40417001 0.62272963 0.34627398]</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>carla_full_nms!A102</f>
         <v>0.9</v>
@@ -18633,32 +19824,32 @@
         <f>carla_full_nms!N102</f>
         <v>0.21914775871610401</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <f>carla_full_nms!O102</f>
         <v>0.64954337899543302</v>
       </c>
-      <c r="P102">
+      <c r="Q102">
         <f>carla_full_nms!P102</f>
         <v>0.44601769911504402</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <f>carla_full_nms!Q102</f>
         <v>0.30168269230769201</v>
       </c>
-      <c r="R102">
+      <c r="S102">
         <f>carla_full_nms!R102</f>
         <v>0.62293388429751995</v>
       </c>
-      <c r="S102">
+      <c r="T102">
         <f>carla_full_nms!S102</f>
         <v>0.80981595092024505</v>
       </c>
-      <c r="T102" t="str">
+      <c r="V102" t="str">
         <f>carla_full_nms!T102</f>
         <v xml:space="preserve"> [0.59926277 0.54077253 0.40224359 0.6251944  0.34494774]</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>carla_full_nms!A103</f>
         <v>0.9</v>
@@ -18715,32 +19906,32 @@
         <f>carla_full_nms!N103</f>
         <v>0.22015334063526801</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <f>carla_full_nms!O103</f>
         <v>0.658675799086758</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <f>carla_full_nms!P103</f>
         <v>0.44955752212389299</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <f>carla_full_nms!Q103</f>
         <v>0.30408653846153799</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <f>carla_full_nms!R103</f>
         <v>0.62293388429751995</v>
       </c>
-      <c r="S103">
+      <c r="T103">
         <f>carla_full_nms!S103</f>
         <v>0.82208588957055195</v>
       </c>
-      <c r="T103" t="str">
+      <c r="V103" t="str">
         <f>carla_full_nms!T103</f>
         <v xml:space="preserve"> [0.60104167 0.54448017 0.40544872 0.62454687 0.34730022]</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>carla_full_nms!A104</f>
         <v>0.9</v>
@@ -18797,32 +19988,32 @@
         <f>carla_full_nms!N104</f>
         <v>0.216144450345193</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <f>carla_full_nms!O104</f>
         <v>0.66438356164383505</v>
       </c>
-      <c r="P104">
+      <c r="Q104">
         <f>carla_full_nms!P104</f>
         <v>0.44955752212389299</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <f>carla_full_nms!Q104</f>
         <v>0.30408653846153799</v>
       </c>
-      <c r="R104">
+      <c r="S104">
         <f>carla_full_nms!R104</f>
         <v>0.62293388429751995</v>
       </c>
-      <c r="S104">
+      <c r="T104">
         <f>carla_full_nms!S104</f>
         <v>0.832310838445807</v>
       </c>
-      <c r="T104" t="str">
+      <c r="V104" t="str">
         <f>carla_full_nms!T104</f>
         <v xml:space="preserve"> [0.59478794 0.54389722 0.40544872 0.62357808 0.34317032]</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>carla_full_nms!A105</f>
         <v>0.9</v>
@@ -18879,32 +20070,32 @@
         <f>carla_full_nms!N105</f>
         <v>0.209660842754367</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <f>carla_full_nms!O105</f>
         <v>0.67237442922374402</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <f>carla_full_nms!P105</f>
         <v>0.44955752212389299</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <f>carla_full_nms!Q105</f>
         <v>0.30288461538461497</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <f>carla_full_nms!R105</f>
         <v>0.62706611570247905</v>
       </c>
-      <c r="S105">
+      <c r="T105">
         <f>carla_full_nms!S105</f>
         <v>0.83435582822085796</v>
       </c>
-      <c r="T105" t="str">
+      <c r="V105" t="str">
         <f>carla_full_nms!T105</f>
         <v xml:space="preserve"> [0.58811782 0.54331551 0.40384615 0.61624365 0.33511294]</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>carla_full_nms!A106</f>
         <v>0.9</v>
@@ -18962,31 +20153,39 @@
         <v>0.198745779064158</v>
       </c>
       <c r="O106">
+        <f>SUM(J106:N106)/5</f>
+        <v>0.50390121989364967</v>
+      </c>
+      <c r="P106">
         <f>carla_full_nms!O106</f>
         <v>0.67465753424657504</v>
       </c>
-      <c r="P106">
+      <c r="Q106">
         <f>carla_full_nms!P106</f>
         <v>0.44955752212389299</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <f>carla_full_nms!Q106</f>
         <v>0.300480769230769</v>
       </c>
-      <c r="R106">
+      <c r="S106">
         <f>carla_full_nms!R106</f>
         <v>0.63119834710743805</v>
       </c>
-      <c r="S106">
+      <c r="T106">
         <f>carla_full_nms!S106</f>
         <v>0.84253578732106305</v>
       </c>
-      <c r="T106" t="str">
+      <c r="U106">
+        <f>SUM(P106:T106)/5</f>
+        <v>0.57968599200594773</v>
+      </c>
+      <c r="V106" t="str">
         <f>carla_full_nms!T106</f>
         <v xml:space="preserve"> [0.57129048 0.54100106 0.39777247 0.59234125 0.32162373]</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>carla_full_nms!A107</f>
         <v>0.9</v>
@@ -19043,32 +20242,32 @@
         <f>carla_full_nms!N107</f>
         <v>0.180434782608695</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <f>carla_full_nms!O107</f>
         <v>0.67579908675799005</v>
       </c>
-      <c r="P107">
+      <c r="Q107">
         <f>carla_full_nms!P107</f>
         <v>0.44955752212389299</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <f>carla_full_nms!Q107</f>
         <v>0.30288461538461497</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <f>carla_full_nms!R107</f>
         <v>0.63223140495867702</v>
       </c>
-      <c r="S107">
+      <c r="T107">
         <f>carla_full_nms!S107</f>
         <v>0.84867075664621605</v>
       </c>
-      <c r="T107" t="str">
+      <c r="V107" t="str">
         <f>carla_full_nms!T107</f>
         <v xml:space="preserve"> [0.53867152 0.53699789 0.39747634 0.56121045 0.29759771]</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>carla_full_nms!A108</f>
         <v>0.9</v>
@@ -19125,32 +20324,32 @@
         <f>carla_full_nms!N108</f>
         <v>0.162728658536585</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <f>carla_full_nms!O108</f>
         <v>0.67922374429223698</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <f>carla_full_nms!P108</f>
         <v>0.45132743362831801</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <f>carla_full_nms!Q108</f>
         <v>0.30408653846153799</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <f>carla_full_nms!R108</f>
         <v>0.64256198347107396</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <f>carla_full_nms!S108</f>
         <v>0.87321063394682996</v>
       </c>
-      <c r="T108" t="str">
+      <c r="V108" t="str">
         <f>carla_full_nms!T108</f>
         <v xml:space="preserve"> [0.49173554 0.52415211 0.38803681 0.51383726 0.27433344]</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>carla_full_nms!A109</f>
         <v>0.9</v>
@@ -19207,32 +20406,32 @@
         <f>carla_full_nms!N109</f>
         <v>0.140635126377187</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <f>carla_full_nms!O109</f>
         <v>0.681506849315068</v>
       </c>
-      <c r="P109">
+      <c r="Q109">
         <f>carla_full_nms!P109</f>
         <v>0.45486725663716798</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <f>carla_full_nms!Q109</f>
         <v>0.30408653846153799</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <f>carla_full_nms!R109</f>
         <v>0.64566115702479299</v>
       </c>
-      <c r="S109">
+      <c r="T109">
         <f>carla_full_nms!S109</f>
         <v>0.88752556237218805</v>
       </c>
-      <c r="T109" t="str">
+      <c r="V109" t="str">
         <f>carla_full_nms!T109</f>
         <v xml:space="preserve"> [0.43245201 0.48952381 0.37151248 0.45454545 0.2427972 ]</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <f>carla_full_nms!A110</f>
         <v>0.9</v>
@@ -19289,32 +20488,32 @@
         <f>carla_full_nms!N110</f>
         <v>0.12630359212050901</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <f>carla_full_nms!O110</f>
         <v>0.68493150684931503</v>
       </c>
-      <c r="P110">
+      <c r="Q110">
         <f>carla_full_nms!P110</f>
         <v>0.456637168141592</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <f>carla_full_nms!Q110</f>
         <v>0.30408653846153799</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <f>carla_full_nms!R110</f>
         <v>0.64772727272727204</v>
       </c>
-      <c r="S110">
+      <c r="T110">
         <f>carla_full_nms!S110</f>
         <v>0.89161554192228998</v>
       </c>
-      <c r="T110" t="str">
+      <c r="V110" t="str">
         <f>carla_full_nms!T110</f>
         <v xml:space="preserve"> [0.37807183 0.43803056 0.35608726 0.40780488 0.22126364]</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <f>carla_full_nms!A111</f>
         <v>0.9</v>
@@ -19371,32 +20570,32 @@
         <f>carla_full_nms!N111</f>
         <v>0.12446474450471</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <f>carla_full_nms!O111</f>
         <v>0.68493150684931503</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <f>carla_full_nms!P111</f>
         <v>0.45840707964601701</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <f>carla_full_nms!Q111</f>
         <v>0.30408653846153799</v>
       </c>
-      <c r="R111">
+      <c r="S111">
         <f>carla_full_nms!R111</f>
         <v>0.64772727272727204</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <f>carla_full_nms!S111</f>
         <v>0.89161554192228998</v>
       </c>
-      <c r="T111" t="str">
+      <c r="V111" t="str">
         <f>carla_full_nms!T111</f>
         <v xml:space="preserve"> [0.36407767 0.43202669 0.35409377 0.39759036 0.21843687]</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>carla_full_nms!A112</f>
         <v>0.999</v>
@@ -19453,32 +20652,32 @@
         <f>carla_full_nms!N112</f>
         <v>0</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <f>carla_full_nms!O112</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P112">
+      <c r="Q112">
         <f>carla_full_nms!P112</f>
         <v>0</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <f>carla_full_nms!Q112</f>
         <v>0</v>
       </c>
-      <c r="R112">
+      <c r="S112">
         <f>carla_full_nms!R112</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S112">
+      <c r="T112">
         <f>carla_full_nms!S112</f>
         <v>0</v>
       </c>
-      <c r="T112" t="str">
+      <c r="V112" t="str">
         <f>carla_full_nms!T112</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>carla_full_nms!A113</f>
         <v>0.999</v>
@@ -19535,32 +20734,32 @@
         <f>carla_full_nms!N113</f>
         <v>0</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <f>carla_full_nms!O113</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P113">
+      <c r="Q113">
         <f>carla_full_nms!P113</f>
         <v>0</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <f>carla_full_nms!Q113</f>
         <v>0</v>
       </c>
-      <c r="R113">
+      <c r="S113">
         <f>carla_full_nms!R113</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S113">
+      <c r="T113">
         <f>carla_full_nms!S113</f>
         <v>0</v>
       </c>
-      <c r="T113" t="str">
+      <c r="V113" t="str">
         <f>carla_full_nms!T113</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>carla_full_nms!A114</f>
         <v>0.999</v>
@@ -19617,32 +20816,32 @@
         <f>carla_full_nms!N114</f>
         <v>0</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <f>carla_full_nms!O114</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P114">
+      <c r="Q114">
         <f>carla_full_nms!P114</f>
         <v>0</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <f>carla_full_nms!Q114</f>
         <v>0</v>
       </c>
-      <c r="R114">
+      <c r="S114">
         <f>carla_full_nms!R114</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S114">
+      <c r="T114">
         <f>carla_full_nms!S114</f>
         <v>0</v>
       </c>
-      <c r="T114" t="str">
+      <c r="V114" t="str">
         <f>carla_full_nms!T114</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>carla_full_nms!A115</f>
         <v>0.999</v>
@@ -19699,32 +20898,32 @@
         <f>carla_full_nms!N115</f>
         <v>0</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <f>carla_full_nms!O115</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P115">
+      <c r="Q115">
         <f>carla_full_nms!P115</f>
         <v>0</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <f>carla_full_nms!Q115</f>
         <v>0</v>
       </c>
-      <c r="R115">
+      <c r="S115">
         <f>carla_full_nms!R115</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S115">
+      <c r="T115">
         <f>carla_full_nms!S115</f>
         <v>0</v>
       </c>
-      <c r="T115" t="str">
+      <c r="V115" t="str">
         <f>carla_full_nms!T115</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>carla_full_nms!A116</f>
         <v>0.999</v>
@@ -19781,32 +20980,32 @@
         <f>carla_full_nms!N116</f>
         <v>0</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <f>carla_full_nms!O116</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P116">
+      <c r="Q116">
         <f>carla_full_nms!P116</f>
         <v>0</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <f>carla_full_nms!Q116</f>
         <v>0</v>
       </c>
-      <c r="R116">
+      <c r="S116">
         <f>carla_full_nms!R116</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S116">
+      <c r="T116">
         <f>carla_full_nms!S116</f>
         <v>0</v>
       </c>
-      <c r="T116" t="str">
+      <c r="V116" t="str">
         <f>carla_full_nms!T116</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117">
         <f>carla_full_nms!A117</f>
         <v>0.999</v>
@@ -19864,31 +21063,39 @@
         <v>0</v>
       </c>
       <c r="O117">
+        <f>SUM(J117:N117)/5</f>
+        <v>0.36</v>
+      </c>
+      <c r="P117">
         <f>carla_full_nms!O117</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P117">
+      <c r="Q117">
         <f>carla_full_nms!P117</f>
         <v>0</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <f>carla_full_nms!Q117</f>
         <v>0</v>
       </c>
-      <c r="R117">
+      <c r="S117">
         <f>carla_full_nms!R117</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S117">
+      <c r="T117">
         <f>carla_full_nms!S117</f>
         <v>0</v>
       </c>
-      <c r="T117" t="str">
+      <c r="U117">
+        <f>SUM(P117:T117)/5</f>
+        <v>1.9462998603720881E-3</v>
+      </c>
+      <c r="V117" t="str">
         <f>carla_full_nms!T117</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <f>carla_full_nms!A118</f>
         <v>0.999</v>
@@ -19945,32 +21152,32 @@
         <f>carla_full_nms!N118</f>
         <v>0</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <f>carla_full_nms!O118</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P118">
+      <c r="Q118">
         <f>carla_full_nms!P118</f>
         <v>0</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <f>carla_full_nms!Q118</f>
         <v>0</v>
       </c>
-      <c r="R118">
+      <c r="S118">
         <f>carla_full_nms!R118</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S118">
+      <c r="T118">
         <f>carla_full_nms!S118</f>
         <v>0</v>
       </c>
-      <c r="T118" t="str">
+      <c r="V118" t="str">
         <f>carla_full_nms!T118</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <f>carla_full_nms!A119</f>
         <v>0.999</v>
@@ -20027,32 +21234,32 @@
         <f>carla_full_nms!N119</f>
         <v>0</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <f>carla_full_nms!O119</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P119">
+      <c r="Q119">
         <f>carla_full_nms!P119</f>
         <v>0</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <f>carla_full_nms!Q119</f>
         <v>0</v>
       </c>
-      <c r="R119">
+      <c r="S119">
         <f>carla_full_nms!R119</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S119">
+      <c r="T119">
         <f>carla_full_nms!S119</f>
         <v>0</v>
       </c>
-      <c r="T119" t="str">
+      <c r="V119" t="str">
         <f>carla_full_nms!T119</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <f>carla_full_nms!A120</f>
         <v>0.999</v>
@@ -20109,32 +21316,32 @@
         <f>carla_full_nms!N120</f>
         <v>0</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <f>carla_full_nms!O120</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P120">
+      <c r="Q120">
         <f>carla_full_nms!P120</f>
         <v>0</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <f>carla_full_nms!Q120</f>
         <v>0</v>
       </c>
-      <c r="R120">
+      <c r="S120">
         <f>carla_full_nms!R120</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S120">
+      <c r="T120">
         <f>carla_full_nms!S120</f>
         <v>0</v>
       </c>
-      <c r="T120" t="str">
+      <c r="V120" t="str">
         <f>carla_full_nms!T120</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01027749 0.        ]</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <f>carla_full_nms!A121</f>
         <v>0.999</v>
@@ -20191,32 +21398,32 @@
         <f>carla_full_nms!N121</f>
         <v>0</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <f>carla_full_nms!O121</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P121">
+      <c r="Q121">
         <f>carla_full_nms!P121</f>
         <v>0</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <f>carla_full_nms!Q121</f>
         <v>0</v>
       </c>
-      <c r="R121">
+      <c r="S121">
         <f>carla_full_nms!R121</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S121">
+      <c r="T121">
         <f>carla_full_nms!S121</f>
         <v>0</v>
       </c>
-      <c r="T121" t="str">
+      <c r="V121" t="str">
         <f>carla_full_nms!T121</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01026694 0.        ]</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <f>carla_full_nms!A122</f>
         <v>0.999</v>
@@ -20273,49 +21480,49 @@
         <f>carla_full_nms!N122</f>
         <v>0</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <f>carla_full_nms!O122</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="P122">
+      <c r="Q122">
         <f>carla_full_nms!P122</f>
         <v>0</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <f>carla_full_nms!Q122</f>
         <v>0</v>
       </c>
-      <c r="R122">
+      <c r="S122">
         <f>carla_full_nms!R122</f>
         <v>5.1652892561983403E-3</v>
       </c>
-      <c r="S122">
+      <c r="T122">
         <f>carla_full_nms!S122</f>
         <v>0</v>
       </c>
-      <c r="T122" t="str">
+      <c r="V122" t="str">
         <f>carla_full_nms!T122</f>
         <v xml:space="preserve"> [0.00908059 0.         0.         0.01026694 0.        ]</v>
       </c>
     </row>
-    <row r="131" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N131">
         <v>1</v>
       </c>
-      <c r="O131">
+      <c r="P131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N132">
         <v>0</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T122" xr:uid="{4EF00AFE-2273-47CC-9439-BA0DB25C940B}">
+  <autoFilter ref="A1:V122" xr:uid="{4EF00AFE-2273-47CC-9439-BA0DB25C940B}">
     <filterColumn colId="2">
       <filters>
         <filter val="0.5"/>
@@ -20329,7 +21536,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0555381-6A3F-4A28-A784-4DD2634736FC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20356,6 +21563,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
